--- a/users CACER.xlsx
+++ b/users CACER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rsericerca-my.sharepoint.com/personal/rollo_rse-web_it/Documents/Desktop/CACER - public repo/CACER-simulator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rsericerca-my.sharepoint.com/personal/rollo_rse-web_it/Documents/Desktop/CACER simulator - public repo/CACER-simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{6A4002D7-A242-40AC-8E47-40DE3DFA7DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B7E9B18-AD80-4AD9-A1B1-49B84B8EC02D}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{6A4002D7-A242-40AC-8E47-40DE3DFA7DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73FFC6B4-0D75-4A44-838D-89C2EFF2BDC0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5737FCCB-D602-492E-A685-31017A5527F2}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Utenti" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Utenti!$A$1:$AK$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Utenti!$A$1:$AL$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -175,7 +175,7 @@
     Load profile id (see all load profile id in the “Description” sheet).</t>
       </text>
     </comment>
-    <comment ref="N1" authorId="12" shapeId="0" xr:uid="{DA41E16E-E512-45CD-8CBC-1D817FB76E4C}">
+    <comment ref="O1" authorId="12" shapeId="0" xr:uid="{DA41E16E-E512-45CD-8CBC-1D817FB76E4C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +183,7 @@
     Capacity photovoltaic generators in [kWp].</t>
       </text>
     </comment>
-    <comment ref="O1" authorId="13" shapeId="0" xr:uid="{B8C28A67-A4F9-4B4F-BC15-B091B3484E7A}">
+    <comment ref="P1" authorId="13" shapeId="0" xr:uid="{B8C28A67-A4F9-4B4F-BC15-B091B3484E7A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -191,7 +191,7 @@
     Inclination of the module in degree</t>
       </text>
     </comment>
-    <comment ref="P1" authorId="14" shapeId="0" xr:uid="{A5F3336A-4780-49F9-B875-1892D205E932}">
+    <comment ref="Q1" authorId="14" shapeId="0" xr:uid="{A5F3336A-4780-49F9-B875-1892D205E932}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -201,7 +201,7 @@
     90° East, 270° West</t>
       </text>
     </comment>
-    <comment ref="Q1" authorId="15" shapeId="0" xr:uid="{12AE6FD8-64AB-46B1-AA69-47A2596D9860}">
+    <comment ref="R1" authorId="15" shapeId="0" xr:uid="{12AE6FD8-64AB-46B1-AA69-47A2596D9860}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -209,7 +209,7 @@
     Not yet completed!</t>
       </text>
     </comment>
-    <comment ref="R1" authorId="16" shapeId="0" xr:uid="{AECB4510-190E-4E92-B990-F82EEABA9D9C}">
+    <comment ref="S1" authorId="16" shapeId="0" xr:uid="{AECB4510-190E-4E92-B990-F82EEABA9D9C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -217,7 +217,7 @@
     Capacity storage in [kWh].</t>
       </text>
     </comment>
-    <comment ref="S1" authorId="17" shapeId="0" xr:uid="{3B0E736C-120A-4B78-8036-9EA1F90DDF65}">
+    <comment ref="T1" authorId="17" shapeId="0" xr:uid="{3B0E736C-120A-4B78-8036-9EA1F90DDF65}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -225,7 +225,7 @@
     If “true” the photovoltaic generators is new (old plants cannot access the incentives).</t>
       </text>
     </comment>
-    <comment ref="T1" authorId="18" shapeId="0" xr:uid="{B7E16D6F-AB9B-4889-97D0-84423EA2CFC7}">
+    <comment ref="U1" authorId="18" shapeId="0" xr:uid="{B7E16D6F-AB9B-4889-97D0-84423EA2CFC7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -233,7 +233,7 @@
     Voltage level of the user.</t>
       </text>
     </comment>
-    <comment ref="U1" authorId="19" shapeId="0" xr:uid="{908640CA-A740-4D15-8D8C-3094188E37B8}">
+    <comment ref="V1" authorId="19" shapeId="0" xr:uid="{908640CA-A740-4D15-8D8C-3094188E37B8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -241,7 +241,7 @@
     Type of mounting for the PV generator: ground or roof.</t>
       </text>
     </comment>
-    <comment ref="V1" authorId="20" shapeId="0" xr:uid="{50DEC25D-CFC3-4D3D-B75F-B27DF52CCC6A}">
+    <comment ref="W1" authorId="20" shapeId="0" xr:uid="{50DEC25D-CFC3-4D3D-B75F-B27DF52CCC6A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -249,7 +249,7 @@
     If “true” a medium voltage station is installed (the station costs are added to the total capex of the investment).</t>
       </text>
     </comment>
-    <comment ref="X1" authorId="21" shapeId="0" xr:uid="{7A62384E-BA1E-46A7-80A4-FCEE2538452F}">
+    <comment ref="Y1" authorId="21" shapeId="0" xr:uid="{7A62384E-BA1E-46A7-80A4-FCEE2538452F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -257,7 +257,7 @@
     If “true” the user partecipate to the CACER configuration.</t>
       </text>
     </comment>
-    <comment ref="Y1" authorId="22" shapeId="0" xr:uid="{38E56F07-0460-40F8-9A41-084D2EC69AF2}">
+    <comment ref="Z1" authorId="22" shapeId="0" xr:uid="{38E56F07-0460-40F8-9A41-084D2EC69AF2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -265,7 +265,7 @@
     Denomination for the user type used in all plots.</t>
       </text>
     </comment>
-    <comment ref="Z1" authorId="23" shapeId="0" xr:uid="{15D9A42A-7BD4-4141-BA94-4E77475DD903}">
+    <comment ref="AA1" authorId="23" shapeId="0" xr:uid="{15D9A42A-7BD4-4141-BA94-4E77475DD903}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -273,7 +273,7 @@
     Funding schemes (see “Description” sheet).</t>
       </text>
     </comment>
-    <comment ref="AB1" authorId="24" shapeId="0" xr:uid="{E3C06090-A28B-4B55-82BD-B8E1C84A22B9}">
+    <comment ref="AC1" authorId="24" shapeId="0" xr:uid="{E3C06090-A28B-4B55-82BD-B8E1C84A22B9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -281,7 +281,7 @@
     If “true” it's the condominium shared POD, so electricity bills savings can be allocated to all other users.</t>
       </text>
     </comment>
-    <comment ref="AC1" authorId="25" shapeId="0" xr:uid="{E508C489-8705-4582-840D-BCEFBCFF4B3D}">
+    <comment ref="AD1" authorId="25" shapeId="0" xr:uid="{E508C489-8705-4582-840D-BCEFBCFF4B3D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -289,7 +289,7 @@
     Private grant in percentage on the total investment.</t>
       </text>
     </comment>
-    <comment ref="AD1" authorId="26" shapeId="0" xr:uid="{E20F890E-E72E-458E-A9C5-24924FE1245D}">
+    <comment ref="AE1" authorId="26" shapeId="0" xr:uid="{E20F890E-E72E-458E-A9C5-24924FE1245D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -297,7 +297,7 @@
     X% over plant capex. It could include also  forms of grants other than PNRR</t>
       </text>
     </comment>
-    <comment ref="AE1" authorId="27" shapeId="0" xr:uid="{2DF3DF03-43C9-4836-93E7-3A28F8C1F169}">
+    <comment ref="AF1" authorId="27" shapeId="0" xr:uid="{2DF3DF03-43C9-4836-93E7-3A28F8C1F169}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -305,7 +305,7 @@
      X% over the total plant capex (inclusive of grants!). The equity is the remaing percentage (equity% = 100% - grant_private_% - grant_pnrr_% - debt_%) </t>
       </text>
     </comment>
-    <comment ref="AF1" authorId="28" shapeId="0" xr:uid="{63EC1CC8-40BD-4660-ABF4-E7EBB04A0828}">
+    <comment ref="AG1" authorId="28" shapeId="0" xr:uid="{63EC1CC8-40BD-4660-ABF4-E7EBB04A0828}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -313,7 +313,7 @@
     Month disbursement. Starting from 1.</t>
       </text>
     </comment>
-    <comment ref="AG1" authorId="29" shapeId="0" xr:uid="{EF44489C-73E1-4FE5-B9B5-C2EFEE56025F}">
+    <comment ref="AH1" authorId="29" shapeId="0" xr:uid="{EF44489C-73E1-4FE5-B9B5-C2EFEE56025F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -321,7 +321,7 @@
     Month completion of works and generator connection. Starting from 1.</t>
       </text>
     </comment>
-    <comment ref="AH1" authorId="30" shapeId="0" xr:uid="{87ACBEA5-1066-451D-B0A3-787AF80EA5CF}">
+    <comment ref="AI1" authorId="30" shapeId="0" xr:uid="{87ACBEA5-1066-451D-B0A3-787AF80EA5CF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -329,7 +329,7 @@
     Month entry in CACER configuration. Starting from 1.</t>
       </text>
     </comment>
-    <comment ref="AI1" authorId="31" shapeId="0" xr:uid="{779ADCF1-5B74-4C18-AA13-EACCC3143AF6}">
+    <comment ref="AJ1" authorId="31" shapeId="0" xr:uid="{779ADCF1-5B74-4C18-AA13-EACCC3143AF6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -337,7 +337,7 @@
     Month exit CACER configuration. To set the last month tiping “end”.</t>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="32" shapeId="0" xr:uid="{5DCAE571-1906-445E-A076-3D50F36C58A3}">
+    <comment ref="AK1" authorId="32" shapeId="0" xr:uid="{5DCAE571-1906-445E-A076-3D50F36C58A3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -345,7 +345,7 @@
     Primary station id. Insert any ID (number or string) unique for the given substation. It will be needed for the calculation of the premium tariff.</t>
       </text>
     </comment>
-    <comment ref="AK1" authorId="33" shapeId="0" xr:uid="{6F64DC5C-FA47-400C-8835-BEEC006AF158}">
+    <comment ref="AL1" authorId="33" shapeId="0" xr:uid="{6F64DC5C-FA47-400C-8835-BEEC006AF158}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="240">
   <si>
     <t>Pmax</t>
   </si>
@@ -712,9 +712,6 @@
     <t>PA</t>
   </si>
   <si>
-    <t>household_small</t>
-  </si>
-  <si>
     <t>household_medium</t>
   </si>
   <si>
@@ -1070,6 +1067,39 @@
   </si>
   <si>
     <t>wind</t>
+  </si>
+  <si>
+    <t>flag_DSM</t>
+  </si>
+  <si>
+    <t>household_small_1</t>
+  </si>
+  <si>
+    <t>household_small_2</t>
+  </si>
+  <si>
+    <t>household_small_3</t>
+  </si>
+  <si>
+    <t>household_small_4</t>
+  </si>
+  <si>
+    <t>household_small_5</t>
+  </si>
+  <si>
+    <t>household_small_6</t>
+  </si>
+  <si>
+    <t>household_small_7</t>
+  </si>
+  <si>
+    <t>household_small_8</t>
+  </si>
+  <si>
+    <t>household_small_9</t>
+  </si>
+  <si>
+    <t>household_small_10</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1396,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="9" tint="-0.499984740745262"/>
@@ -1608,7 +1658,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -2762,7 +2812,7 @@
                         <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>6</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>0</c:v>
@@ -6677,10 +6727,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
@@ -8945,73 +8995,73 @@
   <threadedComment ref="M1" dT="2025-03-27T14:07:58.57" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{DB14136C-D569-44F5-8CDE-9AEF1DC2E204}">
     <text>Load profile id (see all load profile id in the “Description” sheet).</text>
   </threadedComment>
-  <threadedComment ref="N1" dT="2025-03-27T14:08:20.31" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{DA41E16E-E512-45CD-8CBC-1D817FB76E4C}">
+  <threadedComment ref="O1" dT="2025-03-27T14:08:20.31" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{DA41E16E-E512-45CD-8CBC-1D817FB76E4C}">
     <text>Capacity photovoltaic generators in [kWp].</text>
   </threadedComment>
-  <threadedComment ref="O1" dT="2024-09-10T10:21:54.53" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{B8C28A67-A4F9-4B4F-BC15-B091B3484E7A}">
+  <threadedComment ref="P1" dT="2024-09-10T10:21:54.53" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{B8C28A67-A4F9-4B4F-BC15-B091B3484E7A}">
     <text>Inclination of the module in degree</text>
   </threadedComment>
-  <threadedComment ref="P1" dT="2024-09-10T10:22:19.90" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{A5F3336A-4780-49F9-B875-1892D205E932}">
+  <threadedComment ref="Q1" dT="2024-09-10T10:22:19.90" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{A5F3336A-4780-49F9-B875-1892D205E932}">
     <text>Orientation of the modules in degree (180° is the south)</text>
   </threadedComment>
-  <threadedComment ref="P1" dT="2024-09-16T17:14:28.02" personId="{0E490BA2-9DF1-4D03-A4F7-6B638CC68909}" id="{5BA02FF7-922D-4D3C-8E2C-515D13578B37}" parentId="{A5F3336A-4780-49F9-B875-1892D205E932}">
+  <threadedComment ref="Q1" dT="2024-09-16T17:14:28.02" personId="{0E490BA2-9DF1-4D03-A4F7-6B638CC68909}" id="{5BA02FF7-922D-4D3C-8E2C-515D13578B37}" parentId="{A5F3336A-4780-49F9-B875-1892D205E932}">
     <text>90° East, 270° West</text>
   </threadedComment>
-  <threadedComment ref="Q1" dT="2025-03-27T14:41:49.72" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{12AE6FD8-64AB-46B1-AA69-47A2596D9860}">
+  <threadedComment ref="R1" dT="2025-03-27T14:41:49.72" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{12AE6FD8-64AB-46B1-AA69-47A2596D9860}">
     <text>Not yet completed!</text>
   </threadedComment>
-  <threadedComment ref="R1" dT="2025-03-27T14:08:54.82" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{AECB4510-190E-4E92-B990-F82EEABA9D9C}">
+  <threadedComment ref="S1" dT="2025-03-27T14:08:54.82" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{AECB4510-190E-4E92-B990-F82EEABA9D9C}">
     <text>Capacity storage in [kWh].</text>
   </threadedComment>
-  <threadedComment ref="S1" dT="2025-03-27T14:09:50.75" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{3B0E736C-120A-4B78-8036-9EA1F90DDF65}">
+  <threadedComment ref="T1" dT="2025-03-27T14:09:50.75" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{3B0E736C-120A-4B78-8036-9EA1F90DDF65}">
     <text>If “true” the photovoltaic generators is new (old plants cannot access the incentives).</text>
   </threadedComment>
-  <threadedComment ref="T1" dT="2025-03-27T14:10:02.70" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{B7E16D6F-AB9B-4889-97D0-84423EA2CFC7}">
+  <threadedComment ref="U1" dT="2025-03-27T14:10:02.70" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{B7E16D6F-AB9B-4889-97D0-84423EA2CFC7}">
     <text>Voltage level of the user.</text>
   </threadedComment>
-  <threadedComment ref="U1" dT="2025-03-27T14:10:19.45" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{908640CA-A740-4D15-8D8C-3094188E37B8}">
+  <threadedComment ref="V1" dT="2025-03-27T14:10:19.45" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{908640CA-A740-4D15-8D8C-3094188E37B8}">
     <text>Type of mounting for the PV generator: ground or roof.</text>
   </threadedComment>
-  <threadedComment ref="V1" dT="2025-03-27T14:11:18.79" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{50DEC25D-CFC3-4D3D-B75F-B27DF52CCC6A}">
+  <threadedComment ref="W1" dT="2025-03-27T14:11:18.79" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{50DEC25D-CFC3-4D3D-B75F-B27DF52CCC6A}">
     <text>If “true” a medium voltage station is installed (the station costs are added to the total capex of the investment).</text>
   </threadedComment>
-  <threadedComment ref="X1" dT="2025-03-27T14:11:51.87" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{7A62384E-BA1E-46A7-80A4-FCEE2538452F}">
+  <threadedComment ref="Y1" dT="2025-03-27T14:11:51.87" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{7A62384E-BA1E-46A7-80A4-FCEE2538452F}">
     <text>If “true” the user partecipate to the CACER configuration.</text>
   </threadedComment>
-  <threadedComment ref="Y1" dT="2025-03-27T14:12:07.61" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{38E56F07-0460-40F8-9A41-084D2EC69AF2}">
+  <threadedComment ref="Z1" dT="2025-03-27T14:12:07.61" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{38E56F07-0460-40F8-9A41-084D2EC69AF2}">
     <text>Denomination for the user type used in all plots.</text>
   </threadedComment>
-  <threadedComment ref="Z1" dT="2025-03-27T14:12:45.06" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{15D9A42A-7BD4-4141-BA94-4E77475DD903}">
+  <threadedComment ref="AA1" dT="2025-03-27T14:12:45.06" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{15D9A42A-7BD4-4141-BA94-4E77475DD903}">
     <text>Funding schemes (see “Description” sheet).</text>
   </threadedComment>
-  <threadedComment ref="AB1" dT="2025-03-27T14:13:27.31" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{E3C06090-A28B-4B55-82BD-B8E1C84A22B9}">
+  <threadedComment ref="AC1" dT="2025-03-27T14:13:27.31" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{E3C06090-A28B-4B55-82BD-B8E1C84A22B9}">
     <text>If “true” it's the condominium shared POD, so electricity bills savings can be allocated to all other users.</text>
   </threadedComment>
-  <threadedComment ref="AC1" dT="2025-03-27T14:18:52.18" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{E508C489-8705-4582-840D-BCEFBCFF4B3D}">
+  <threadedComment ref="AD1" dT="2025-03-27T14:18:52.18" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{E508C489-8705-4582-840D-BCEFBCFF4B3D}">
     <text>Private grant in percentage on the total investment.</text>
   </threadedComment>
-  <threadedComment ref="AD1" dT="2025-03-27T14:14:03.57" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{E20F890E-E72E-458E-A9C5-24924FE1245D}">
+  <threadedComment ref="AE1" dT="2025-03-27T14:14:03.57" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{E20F890E-E72E-458E-A9C5-24924FE1245D}">
     <text>X% over plant capex. It could include also  forms of grants other than PNRR</text>
   </threadedComment>
-  <threadedComment ref="AE1" dT="2025-03-27T14:14:34.80" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{2DF3DF03-43C9-4836-93E7-3A28F8C1F169}">
+  <threadedComment ref="AF1" dT="2025-03-27T14:14:34.80" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{2DF3DF03-43C9-4836-93E7-3A28F8C1F169}">
     <text xml:space="preserve"> X% over the total plant capex (inclusive of grants!). The equity is the remaing percentage (equity% = 100% - grant_private_% - grant_pnrr_% - debt_%) </text>
   </threadedComment>
-  <threadedComment ref="AF1" dT="2025-03-27T14:14:49.04" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{63EC1CC8-40BD-4660-ABF4-E7EBB04A0828}">
+  <threadedComment ref="AG1" dT="2025-03-27T14:14:49.04" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{63EC1CC8-40BD-4660-ABF4-E7EBB04A0828}">
     <text>Month disbursement. Starting from 1.</text>
   </threadedComment>
-  <threadedComment ref="AG1" dT="2025-03-27T14:16:40.99" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{EF44489C-73E1-4FE5-B9B5-C2EFEE56025F}">
+  <threadedComment ref="AH1" dT="2025-03-27T14:16:40.99" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{EF44489C-73E1-4FE5-B9B5-C2EFEE56025F}">
     <text>Month completion of works and generator connection. Starting from 1.</text>
   </threadedComment>
-  <threadedComment ref="AH1" dT="2025-03-27T14:17:18.93" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{87ACBEA5-1066-451D-B0A3-787AF80EA5CF}">
+  <threadedComment ref="AI1" dT="2025-03-27T14:17:18.93" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{87ACBEA5-1066-451D-B0A3-787AF80EA5CF}">
     <text>Month entry in CACER configuration. Starting from 1.</text>
   </threadedComment>
-  <threadedComment ref="AI1" dT="2025-03-27T14:18:19.82" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{779ADCF1-5B74-4C18-AA13-EACCC3143AF6}">
+  <threadedComment ref="AJ1" dT="2025-03-27T14:18:19.82" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{779ADCF1-5B74-4C18-AA13-EACCC3143AF6}">
     <text>Month exit CACER configuration. To set the last month tiping “end”.</text>
   </threadedComment>
-  <threadedComment ref="AJ1" dT="2025-03-27T14:15:51.32" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{5DCAE571-1906-445E-A076-3D50F36C58A3}">
+  <threadedComment ref="AK1" dT="2025-03-27T14:15:51.32" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{5DCAE571-1906-445E-A076-3D50F36C58A3}">
     <text>Primary station id. Insert any ID (number or string) unique for the given substation. It will be needed for the calculation of the premium tariff.</text>
   </threadedComment>
-  <threadedComment ref="AK1" dT="2025-03-27T14:16:02.88" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{6F64DC5C-FA47-400C-8835-BEEC006AF158}">
+  <threadedComment ref="AL1" dT="2025-03-27T14:16:02.88" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{6F64DC5C-FA47-400C-8835-BEEC006AF158}">
     <text>Location of the user type.</text>
   </threadedComment>
 </ThreadedComments>
@@ -9052,34 +9102,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>207</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>208</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>78</v>
       </c>
       <c r="K1" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>211</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -9100,16 +9150,16 @@
       </c>
       <c r="I2" s="7"/>
       <c r="K2" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -9136,10 +9186,10 @@
         <v>17</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -9168,7 +9218,7 @@
         <v>18</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>34</v>
@@ -9194,7 +9244,7 @@
         <v>44</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>99</v>
@@ -9217,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>98</v>
@@ -9240,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>100</v>
@@ -9251,10 +9301,10 @@
         <v>12</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9262,7 +9312,7 @@
         <v>62</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>101</v>
@@ -9273,7 +9323,7 @@
         <v>63</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>90</v>
@@ -9284,10 +9334,10 @@
         <v>64</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9295,10 +9345,10 @@
         <v>65</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9306,10 +9356,10 @@
         <v>66</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9317,10 +9367,10 @@
         <v>67</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9328,7 +9378,7 @@
         <v>68</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>86</v>
@@ -9339,7 +9389,7 @@
         <v>69</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>85</v>
@@ -9350,7 +9400,7 @@
         <v>70</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>83</v>
@@ -9358,7 +9408,7 @@
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O18" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>80</v>
@@ -9366,15 +9416,15 @@
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O19" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O20" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>46</v>
@@ -9382,291 +9432,291 @@
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O21" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O23" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O25" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O27" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O30" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O31" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O32" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O33" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O34" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O35" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O36" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O37" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O38" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O39" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O40" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O41" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O42" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O43" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O44" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O45" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O46" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O47" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O48" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O49" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O50" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O51" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O52" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O53" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O54" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O55" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O56" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O57" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O58" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O59" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O60" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O61" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O62" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O63" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O64" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O65" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O66" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O67" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O68" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O69" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O70" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O71" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O72" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O73" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -9725,7 +9775,7 @@
       </c>
       <c r="I1" s="21">
         <f t="shared" ref="I1:J1" si="0">SUM(I3:I1048576)</f>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J1" s="22">
         <f t="shared" si="0"/>
@@ -9742,7 +9792,7 @@
       </c>
       <c r="C2" s="7">
         <f>COUNTIFS(Utenti!$F:$F,Summary!C1)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIFS(Utenti!$F:$F,Summary!D1)</f>
@@ -9750,7 +9800,7 @@
       </c>
       <c r="E2" s="2">
         <f>SUM(B2:D2)</f>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>24</v>
@@ -9771,11 +9821,11 @@
         <v>ICT_999kW</v>
       </c>
       <c r="H3" s="7">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G3,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G3,Utenti!$C:$C,0)),"")</f>
         <v>999</v>
       </c>
       <c r="I3" s="7">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G3,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G3,Utenti!$C:$C,0)),"")</f>
         <v>0</v>
       </c>
       <c r="J3" s="7" t="str">
@@ -9788,11 +9838,11 @@
         <v>ICT_30kW</v>
       </c>
       <c r="H4" s="7">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G4,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G4,Utenti!$C:$C,0)),"")</f>
         <v>30</v>
       </c>
       <c r="I4" s="7">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G4,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G4,Utenti!$C:$C,0)),"")</f>
         <v>0</v>
       </c>
       <c r="J4" s="7" t="str">
@@ -9805,11 +9855,11 @@
         <v>household_small_prosumer</v>
       </c>
       <c r="H5" s="7">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G5,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G5,Utenti!$C:$C,0)),"")</f>
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G5,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G5,Utenti!$C:$C,0)),"")</f>
         <v>0</v>
       </c>
       <c r="J5" s="7" t="str">
@@ -9822,11 +9872,11 @@
         <v>household_medium_prosumer</v>
       </c>
       <c r="H6" s="7">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G6,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G6,Utenti!$C:$C,0)),"")</f>
         <v>6</v>
       </c>
       <c r="I6" s="7">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G6,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G6,Utenti!$C:$C,0)),"")</f>
         <v>10</v>
       </c>
       <c r="J6" s="7" t="str">
@@ -9839,11 +9889,11 @@
         <v>household_big_prosumer</v>
       </c>
       <c r="H7" s="7">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G7,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G7,Utenti!$C:$C,0)),"")</f>
         <v>10</v>
       </c>
       <c r="I7" s="7">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G7,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G7,Utenti!$C:$C,0)),"")</f>
         <v>0</v>
       </c>
       <c r="J7" s="7" t="str">
@@ -9856,11 +9906,11 @@
         <v>business_medium_litigioso</v>
       </c>
       <c r="H8" s="7">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G8,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G8,Utenti!$C:$C,0)),"")</f>
         <v>10</v>
       </c>
       <c r="I8" s="7">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G8,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G8,Utenti!$C:$C,0)),"")</f>
         <v>20</v>
       </c>
       <c r="J8" s="7" t="str">
@@ -9873,11 +9923,11 @@
         <v>public_school</v>
       </c>
       <c r="H9" s="7">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G9,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G9,Utenti!$C:$C,0)),"")</f>
         <v>20</v>
       </c>
       <c r="I9" s="7">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G9,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G9,Utenti!$C:$C,0)),"")</f>
         <v>0</v>
       </c>
       <c r="J9" s="7" t="str">
@@ -9890,11 +9940,11 @@
         <v>school_1000_students</v>
       </c>
       <c r="H10" s="7">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G10,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G10,Utenti!$C:$C,0)),"")</f>
         <v>30</v>
       </c>
       <c r="I10" s="7">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G10,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G10,Utenti!$C:$C,0)),"")</f>
         <v>0</v>
       </c>
       <c r="J10" s="7" t="str">
@@ -9907,11 +9957,11 @@
         <v>school_500_students</v>
       </c>
       <c r="H11" s="7">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G11,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G11,Utenti!$C:$C,0)),"")</f>
         <v>20</v>
       </c>
       <c r="I11" s="7">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G11,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G11,Utenti!$C:$C,0)),"")</f>
         <v>0</v>
       </c>
       <c r="J11" s="7" t="str">
@@ -9924,11 +9974,11 @@
         <v>condominium_small</v>
       </c>
       <c r="H12" s="7">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G12,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G12,Utenti!$C:$C,0)),"")</f>
         <v>10</v>
       </c>
       <c r="I12" s="7">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G12,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G12,Utenti!$C:$C,0)),"")</f>
         <v>3</v>
       </c>
       <c r="J12" s="7" t="str">
@@ -9941,12 +9991,12 @@
         <v>condominium_medium</v>
       </c>
       <c r="H13" s="7">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G13,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G13,Utenti!$C:$C,0)),"")</f>
         <v>20</v>
       </c>
       <c r="I13" s="7">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G13,Utenti!$C:$C,0)),"")</f>
-        <v>6</v>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G13,Utenti!$C:$C,0)),"")</f>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="str">
         <f>IFERROR(INDEX(Utenti!#REF!,MATCH(Summary!$G13,Utenti!$C:$C,0)),"")</f>
@@ -9958,11 +10008,11 @@
         <v>condominium_big</v>
       </c>
       <c r="H14" s="7">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G14,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G14,Utenti!$C:$C,0)),"")</f>
         <v>40</v>
       </c>
       <c r="I14" s="7">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G14,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G14,Utenti!$C:$C,0)),"")</f>
         <v>12</v>
       </c>
       <c r="J14" s="7" t="str">
@@ -9973,11 +10023,11 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G15,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G15,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I15" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G15,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G15,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J15" s="7" t="str">
@@ -9988,11 +10038,11 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G16,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G16,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I16" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G16,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G16,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J16" s="7" t="str">
@@ -10003,11 +10053,11 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G17,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G17,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I17" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G17,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G17,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J17" s="7" t="str">
@@ -10031,11 +10081,11 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G18,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G18,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I18" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G18,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G18,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J18" s="7" t="str">
@@ -10049,11 +10099,11 @@
       </c>
       <c r="B19" s="7">
         <f>COUNTIF(Utenti!$I:$I,B18)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7">
         <f>COUNTIF(Utenti!$I:$I,C18)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
         <f>COUNTIF(Utenti!$I:$I,D18)</f>
@@ -10065,11 +10115,11 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G19,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G19,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I19" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G19,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G19,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J19" s="7" t="str">
@@ -10080,11 +10130,11 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G20,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G20,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I20" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G20,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G20,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J20" s="7" t="str">
@@ -10095,11 +10145,11 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G21,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G21,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I21" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G21,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G21,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J21" s="7" t="str">
@@ -10110,11 +10160,11 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G22,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G22,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I22" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G22,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G22,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J22" s="7" t="str">
@@ -10125,11 +10175,11 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G23,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G23,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I23" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G23,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G23,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J23" s="7" t="str">
@@ -10140,11 +10190,11 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G24,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G24,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I24" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G24,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G24,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J24" s="7" t="str">
@@ -10155,11 +10205,11 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G25,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G25,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I25" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G25,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G25,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J25" s="7" t="str">
@@ -10170,11 +10220,11 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G26,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G26,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I26" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G26,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G26,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J26" s="7" t="str">
@@ -10185,11 +10235,11 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G27,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G27,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I27" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G27,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G27,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J27" s="7" t="str">
@@ -10200,11 +10250,11 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G28,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G28,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I28" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G28,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G28,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J28" s="7" t="str">
@@ -10215,11 +10265,11 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G29,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G29,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I29" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G29,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G29,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J29" s="7" t="str">
@@ -10230,11 +10280,11 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G30,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G30,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I30" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G30,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G30,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J30" s="7" t="str">
@@ -10245,11 +10295,11 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G31,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G31,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I31" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G31,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G31,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J31" s="7" t="str">
@@ -10260,11 +10310,11 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G32,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G32,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I32" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G32,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G32,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J32" s="7" t="str">
@@ -10275,11 +10325,11 @@
     <row r="33" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G33,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G33,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I33" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G33,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G33,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J33" s="7" t="str">
@@ -10290,11 +10340,11 @@
     <row r="34" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G34,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G34,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I34" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G34,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G34,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J34" s="7" t="str">
@@ -10305,11 +10355,11 @@
     <row r="35" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G35" s="7"/>
       <c r="H35" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G35,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G35,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I35" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G35,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G35,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J35" s="7" t="str">
@@ -10320,11 +10370,11 @@
     <row r="36" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G36,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G36,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I36" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G36,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G36,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J36" s="7" t="str">
@@ -10335,11 +10385,11 @@
     <row r="37" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G37" s="7"/>
       <c r="H37" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G37,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G37,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I37" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G37,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G37,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J37" s="7" t="str">
@@ -10350,11 +10400,11 @@
     <row r="38" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G38,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G38,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I38" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G38,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G38,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J38" s="7" t="str">
@@ -10365,11 +10415,11 @@
     <row r="39" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G39" s="7"/>
       <c r="H39" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G39,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G39,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I39" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G39,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G39,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J39" s="7" t="str">
@@ -10380,11 +10430,11 @@
     <row r="40" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G40,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G40,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I40" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G40,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G40,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J40" s="7" t="str">
@@ -10395,11 +10445,11 @@
     <row r="41" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G41,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G41,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I41" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G41,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G41,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J41" s="7" t="str">
@@ -10410,11 +10460,11 @@
     <row r="42" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G42,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G42,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I42" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G42,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G42,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J42" s="7" t="str">
@@ -10425,11 +10475,11 @@
     <row r="43" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G43" s="7"/>
       <c r="H43" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G43,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G43,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I43" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G43,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G43,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J43" s="7" t="str">
@@ -10440,11 +10490,11 @@
     <row r="44" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G44" s="7"/>
       <c r="H44" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G44,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G44,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I44" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G44,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G44,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J44" s="7" t="str">
@@ -10455,11 +10505,11 @@
     <row r="45" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G45,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G45,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I45" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G45,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G45,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J45" s="7" t="str">
@@ -10470,11 +10520,11 @@
     <row r="46" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G46" s="7"/>
       <c r="H46" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G46,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G46,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I46" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G46,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G46,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J46" s="7" t="str">
@@ -10485,11 +10535,11 @@
     <row r="47" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G47,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G47,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I47" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G47,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G47,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J47" s="7" t="str">
@@ -10500,11 +10550,11 @@
     <row r="48" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G48,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G48,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I48" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G48,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G48,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J48" s="7" t="str">
@@ -10515,11 +10565,11 @@
     <row r="49" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G49,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G49,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I49" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G49,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G49,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J49" s="7" t="str">
@@ -10530,11 +10580,11 @@
     <row r="50" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G50,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G50,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I50" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G50,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G50,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J50" s="7" t="str">
@@ -10545,11 +10595,11 @@
     <row r="51" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G51,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G51,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I51" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G51,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G51,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J51" s="7" t="str">
@@ -10560,11 +10610,11 @@
     <row r="52" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G52,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G52,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I52" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G52,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G52,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J52" s="7" t="str">
@@ -10575,11 +10625,11 @@
     <row r="53" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G53,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G53,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I53" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G53,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G53,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J53" s="7" t="str">
@@ -10590,11 +10640,11 @@
     <row r="54" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G54,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G54,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I54" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G54,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G54,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J54" s="7" t="str">
@@ -10605,11 +10655,11 @@
     <row r="55" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$N:$N,MATCH(Summary!$G55,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$O:$O,MATCH(Summary!$G55,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="I55" s="7" t="str">
-        <f>IFERROR(INDEX(Utenti!$R:$R,MATCH(Summary!$G55,Utenti!$C:$C,0)),"")</f>
+        <f>IFERROR(INDEX(Utenti!$S:$S,MATCH(Summary!$G55,Utenti!$C:$C,0)),"")</f>
         <v/>
       </c>
       <c r="J55" s="7" t="str">
@@ -10628,11 +10678,11 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:AK70"/>
+  <dimension ref="A1:AL79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10645,37 +10695,38 @@
     <col min="6" max="6" width="9.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="9.109375" style="3"/>
-    <col min="25" max="25" width="33.6640625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="29.77734375" style="3" customWidth="1"/>
-    <col min="27" max="27" width="12.21875" style="3" customWidth="1"/>
-    <col min="28" max="28" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" style="3" customWidth="1"/>
-    <col min="32" max="32" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.44140625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="12.109375" style="3" customWidth="1"/>
-    <col min="35" max="35" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.109375" style="3"/>
+    <col min="14" max="14" width="26.77734375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="5.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="9.44140625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="9.109375" style="3"/>
+    <col min="26" max="26" width="33.6640625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="29.77734375" style="3" customWidth="1"/>
+    <col min="28" max="28" width="12.21875" style="3" customWidth="1"/>
+    <col min="29" max="29" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16" style="3" customWidth="1"/>
+    <col min="33" max="33" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.44140625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="12.109375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>41</v>
       </c>
@@ -10716,79 +10767,82 @@
         <v>39</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="4" cm="1">
         <f t="array" aca="1" ref="A2" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>1</v>
@@ -10809,7 +10863,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="b">
-        <f t="shared" ref="H2:H24" si="1">IF(SUM(N2:R2)&gt;0,TRUE,FALSE)</f>
+        <f t="shared" ref="H2:H33" si="1">IF(SUM(O2:S2)&gt;0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -10819,7 +10873,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>18</v>
@@ -10827,73 +10881,76 @@
       <c r="M2" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="6"/>
+      <c r="N2" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="S2" s="6"/>
+      <c r="T2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="6"/>
       <c r="V2" s="6"/>
-      <c r="W2" s="4">
-        <f t="shared" ref="W2:W23" si="2">IF(AND(H2=FALSE,G2=FALSE),1,0) + IF(AND(NOT(B2),D2&gt;0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="5" t="s">
+      <c r="W2" s="6"/>
+      <c r="X2" s="4">
+        <f t="shared" ref="X2:X32" si="2">IF(AND(H2=FALSE,G2=FALSE),1,0) + IF(AND(NOT(B2),D2&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z2,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB2" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA2,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="7"/>
       <c r="AD2" s="10">
         <v>0</v>
       </c>
       <c r="AE2" s="10">
         <v>0</v>
       </c>
-      <c r="AF2" s="6">
-        <v>1</v>
+      <c r="AF2" s="10">
+        <v>0</v>
       </c>
       <c r="AG2" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK2" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL2" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="4" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>2</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="str">
-        <f>"ICT_"&amp;TEXT(N3,0)&amp;"kW"</f>
+        <f>"ICT_"&amp;TEXT(O3,0)&amp;"kW"</f>
         <v>ICT_999kW</v>
       </c>
       <c r="D3" s="6"/>
@@ -10919,84 +10976,85 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="6">
+      <c r="N3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
         <v>999</v>
       </c>
-      <c r="O3" s="6">
+      <c r="P3" s="6">
         <v>40</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="6">
         <v>180</v>
       </c>
-      <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" s="6" t="s">
+      <c r="S3" s="6"/>
+      <c r="T3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="4">
+      <c r="W3" s="6"/>
+      <c r="X3" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="6" t="str">
-        <f>"impianto immissione totale "&amp;N3&amp;"kW"</f>
+      <c r="Y3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="6" t="str">
+        <f>"impianto immissione totale "&amp;O3&amp;"kW"</f>
         <v>impianto immissione totale 999kW</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z3,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB3" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA3,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="7"/>
       <c r="AD3" s="10">
         <v>0</v>
       </c>
       <c r="AE3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="10">
         <v>0.5</v>
       </c>
-      <c r="AF3" s="6">
-        <v>1</v>
-      </c>
       <c r="AG3" s="6">
-        <f>AF3+6</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AH3" s="6">
-        <f t="shared" ref="AH3" si="3">AG3</f>
-        <v>7</v>
-      </c>
-      <c r="AI3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK3" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL3" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="4" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>3</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="str">
-        <f>"ICT_"&amp;TEXT(N4,0)&amp;"kW"</f>
+        <f>"ICT_"&amp;TEXT(O4,0)&amp;"kW"</f>
         <v>ICT_30kW</v>
       </c>
       <c r="D4" s="6"/>
@@ -11006,7 +11064,7 @@
         <v>producer</v>
       </c>
       <c r="G4" s="7" t="b">
-        <f t="shared" ref="G4" si="4">IF(M4&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" ref="G4" si="3">IF(M4&lt;&gt;"",TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H4" s="7" t="b">
@@ -11022,76 +11080,78 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="6">
+      <c r="N4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
         <v>30</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <v>40</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <v>180</v>
       </c>
-      <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="6" t="s">
+      <c r="S4" s="6"/>
+      <c r="T4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="4">
+      <c r="W4" s="6"/>
+      <c r="X4" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="6" t="str">
-        <f>"impianto immissione totale "&amp;N4&amp;"kW"</f>
+      <c r="Y4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="6" t="str">
+        <f>"impianto immissione totale "&amp;O4&amp;"kW"</f>
         <v>impianto immissione totale 30kW</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z4,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB4" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA4,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="7"/>
       <c r="AD4" s="10">
         <v>0</v>
       </c>
       <c r="AE4" s="10">
         <v>0</v>
       </c>
-      <c r="AF4" s="6">
-        <v>1</v>
+      <c r="AF4" s="10">
+        <v>0</v>
       </c>
       <c r="AG4" s="6">
         <v>1</v>
       </c>
       <c r="AH4" s="6">
-        <f t="shared" ref="AH4" si="5">AG4</f>
-        <v>1</v>
-      </c>
-      <c r="AI4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AK4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK4" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL4" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="4" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>4</v>
@@ -11100,10 +11160,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="D5" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="str" cm="1">
@@ -11111,7 +11171,7 @@
         <v>consumer</v>
       </c>
       <c r="G5" s="7" t="b">
-        <f t="shared" ref="G5:G11" si="6">IF(M5&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" ref="G5:G20" si="4">IF(M5&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H5" s="7" t="b">
@@ -11122,7 +11182,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>96</v>
@@ -11133,97 +11193,104 @@
       <c r="M5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="6"/>
+      <c r="N5" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6" t="s">
+      <c r="S5" s="6"/>
+      <c r="T5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="6"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="4">
+      <c r="W5" s="6"/>
+      <c r="X5" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="6" t="str">
-        <f t="shared" ref="Y5:Y10" si="7">C5</f>
-        <v>household_small</v>
-      </c>
-      <c r="Z5" s="6" t="s">
+      <c r="Y5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="6" t="str">
+        <f t="shared" ref="Z5:Z19" si="5">C5</f>
+        <v>household_small_1</v>
+      </c>
+      <c r="AA5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z5,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB5" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA5,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7"/>
       <c r="AD5" s="10">
         <v>0</v>
       </c>
       <c r="AE5" s="10">
         <v>0</v>
       </c>
-      <c r="AF5" s="6">
-        <v>1</v>
+      <c r="AF5" s="10">
+        <v>0</v>
       </c>
       <c r="AG5" s="6">
         <v>1</v>
       </c>
       <c r="AH5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AK5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK5" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL5" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="4" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="C6" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>231</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="str" cm="1">
         <f t="array" ref="F6">_xlfn.IFS(AND(G6,H6),"prosumer",G6,"consumer",H6,"producer")</f>
-        <v>prosumer</v>
+        <v>consumer</v>
       </c>
       <c r="G6" s="7" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G6:G7" si="6">IF(M6&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H6" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="H6:H7" si="7">IF(SUM(O6:S6)&gt;0,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>18</v>
@@ -11231,86 +11298,83 @@
       <c r="M6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="6">
-        <v>3</v>
-      </c>
-      <c r="O6" s="6">
-        <v>40</v>
-      </c>
-      <c r="P6" s="6">
-        <v>180</v>
-      </c>
+      <c r="N6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T6" s="6" t="s">
+      <c r="S6" s="6"/>
+      <c r="T6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="V6" s="6"/>
-      <c r="W6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>household_small_prosumer</v>
-      </c>
-      <c r="Z6" s="6" t="s">
+      <c r="W6" s="6"/>
+      <c r="X6" s="4">
+        <f t="shared" ref="X6:X7" si="8">IF(AND(H6=FALSE,G6=FALSE),1,0) + IF(AND(NOT(B6),D6&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="6" t="str">
+        <f t="shared" ref="Z6:Z7" si="9">C6</f>
+        <v>household_small_2</v>
+      </c>
+      <c r="AA6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA6" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z6,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB6" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA6,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7"/>
       <c r="AD6" s="10">
         <v>0</v>
       </c>
       <c r="AE6" s="10">
         <v>0</v>
       </c>
-      <c r="AF6" s="6">
-        <v>1</v>
+      <c r="AF6" s="10">
+        <v>0</v>
       </c>
       <c r="AG6" s="6">
-        <f t="shared" ref="AG6" si="8">AF6+3</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="6">
-        <f>AG6</f>
-        <v>4</v>
-      </c>
-      <c r="AI6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AK6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL6" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="4" cm="1">
         <f t="array" aca="1" ref="A7" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="C7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>232</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="str" cm="1">
         <f t="array" ref="F7">_xlfn.IFS(AND(G7,H7),"prosumer",G7,"consumer",H7,"producer")</f>
@@ -11321,7 +11385,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="7" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -11331,7 +11395,7 @@
         <v>3</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>18</v>
@@ -11339,67 +11403,70 @@
       <c r="M7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T7" s="6" t="s">
+      <c r="S7" s="6"/>
+      <c r="T7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="6"/>
       <c r="V7" s="6"/>
-      <c r="W7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>household_medium</v>
-      </c>
-      <c r="Z7" s="6" t="s">
+      <c r="W7" s="6"/>
+      <c r="X7" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>household_small_3</v>
+      </c>
+      <c r="AA7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z7,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB7" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA7,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7"/>
       <c r="AD7" s="10">
         <v>0</v>
       </c>
       <c r="AE7" s="10">
         <v>0</v>
       </c>
-      <c r="AF7" s="6">
-        <v>1</v>
+      <c r="AF7" s="10">
+        <v>0</v>
       </c>
       <c r="AG7" s="6">
         <v>1</v>
       </c>
       <c r="AH7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="6" t="s">
+      <c r="AK7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK7" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL7" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="4" cm="1">
         <f t="array" aca="1" ref="A8" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>7</v>
@@ -11408,7 +11475,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -11416,15 +11483,15 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7" t="str" cm="1">
         <f t="array" ref="F8">_xlfn.IFS(AND(G8,H8),"prosumer",G8,"consumer",H8,"producer")</f>
-        <v>prosumer</v>
+        <v>consumer</v>
       </c>
       <c r="G8" s="7" t="b">
-        <f t="shared" ref="G8" si="9">IF(M8&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" ref="G8:G11" si="10">IF(M8&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H8" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="H8:H11" si="11">IF(SUM(O8:S8)&gt;0,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>9</v>
@@ -11433,7 +11500,7 @@
         <v>3</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>18</v>
@@ -11441,79 +11508,70 @@
       <c r="M8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="6">
-        <v>6</v>
-      </c>
-      <c r="O8" s="6">
-        <v>40</v>
-      </c>
-      <c r="P8" s="6">
-        <v>180</v>
-      </c>
+      <c r="N8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="6">
-        <v>10</v>
-      </c>
-      <c r="S8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T8" s="6" t="s">
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U8" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="V8" s="6"/>
-      <c r="W8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>household_medium_prosumer</v>
-      </c>
-      <c r="Z8" s="6" t="s">
+      <c r="W8" s="6"/>
+      <c r="X8" s="4">
+        <f t="shared" ref="X8:X11" si="12">IF(AND(H8=FALSE,G8=FALSE),1,0) + IF(AND(NOT(B8),D8&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="6" t="str">
+        <f t="shared" ref="Z8:Z11" si="13">C8</f>
+        <v>household_small_4</v>
+      </c>
+      <c r="AA8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z8,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB8" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA8,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7"/>
       <c r="AD8" s="10">
         <v>0</v>
       </c>
       <c r="AE8" s="10">
         <v>0</v>
       </c>
-      <c r="AF8" s="6">
-        <v>1</v>
+      <c r="AF8" s="10">
+        <v>0</v>
       </c>
       <c r="AG8" s="6">
-        <f t="shared" ref="AG8" si="10">AF8+3</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="6">
-        <f>AG8</f>
-        <v>4</v>
-      </c>
-      <c r="AI8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ8" s="6" t="s">
+      <c r="AK8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK8" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL8" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="4" cm="1">
         <f t="array" aca="1" ref="A9" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>8</v>
@@ -11522,10 +11580,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="D9" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="str" cm="1">
@@ -11533,18 +11591,18 @@
         <v>consumer</v>
       </c>
       <c r="G9" s="7" t="b">
-        <f>IF(M9&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H9" s="7" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>96</v>
@@ -11555,94 +11613,101 @@
       <c r="M9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T9" s="6" t="s">
+      <c r="S9" s="6"/>
+      <c r="T9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="6"/>
       <c r="V9" s="6"/>
-      <c r="W9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>household_big</v>
-      </c>
-      <c r="Z9" s="6" t="s">
+      <c r="W9" s="6"/>
+      <c r="X9" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>household_small_5</v>
+      </c>
+      <c r="AA9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA9" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z9,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB9" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA9,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7"/>
       <c r="AD9" s="10">
         <v>0</v>
       </c>
       <c r="AE9" s="10">
         <v>0</v>
       </c>
-      <c r="AF9" s="6">
-        <v>1</v>
+      <c r="AF9" s="10">
+        <v>0</v>
       </c>
       <c r="AG9" s="6">
         <v>1</v>
       </c>
       <c r="AH9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ9" s="6" t="s">
+      <c r="AK9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK9" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL9" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="4" cm="1">
         <f t="array" aca="1" ref="A10" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="C10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>235</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7" t="str" cm="1">
         <f t="array" ref="F10">_xlfn.IFS(AND(G10,H10),"prosumer",G10,"consumer",H10,"producer")</f>
-        <v>prosumer</v>
+        <v>consumer</v>
       </c>
       <c r="G10" s="7" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H10" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>96</v>
@@ -11653,77 +11718,70 @@
       <c r="M10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="6">
-        <v>10</v>
-      </c>
-      <c r="O10" s="6">
-        <v>40</v>
-      </c>
-      <c r="P10" s="6">
-        <v>180</v>
-      </c>
+      <c r="N10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" s="6" t="s">
+      <c r="S10" s="6"/>
+      <c r="T10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="V10" s="6"/>
-      <c r="W10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>household_big_prosumer</v>
-      </c>
-      <c r="Z10" s="6" t="s">
+      <c r="W10" s="6"/>
+      <c r="X10" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>household_small_6</v>
+      </c>
+      <c r="AA10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA10" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z10,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB10" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA10,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7"/>
       <c r="AD10" s="10">
         <v>0</v>
       </c>
       <c r="AE10" s="10">
         <v>0</v>
       </c>
-      <c r="AF10" s="6">
-        <v>1</v>
+      <c r="AF10" s="10">
+        <v>0</v>
       </c>
       <c r="AG10" s="6">
-        <f t="shared" ref="AG10" si="11">AF10+3</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="6">
-        <f>AG10</f>
-        <v>4</v>
-      </c>
-      <c r="AI10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ10" s="6" t="s">
+      <c r="AK10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK10" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL10" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="4" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>10</v>
@@ -11732,10 +11790,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="D11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="str" cm="1">
@@ -11743,15 +11801,15 @@
         <v>consumer</v>
       </c>
       <c r="G11" s="7" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H11" s="7" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>3</v>
@@ -11765,90 +11823,98 @@
       <c r="M11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T11" s="6" t="s">
+      <c r="S11" s="6"/>
+      <c r="T11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U11" s="6"/>
       <c r="V11" s="6"/>
-      <c r="W11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="6" t="s">
+      <c r="W11" s="6"/>
+      <c r="X11" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>household_small_7</v>
+      </c>
+      <c r="AA11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA11" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z11,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB11" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA11,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7"/>
       <c r="AD11" s="10">
         <v>0</v>
       </c>
       <c r="AE11" s="10">
         <v>0</v>
       </c>
-      <c r="AF11" s="6">
-        <v>1</v>
+      <c r="AF11" s="10">
+        <v>0</v>
       </c>
       <c r="AG11" s="6">
         <v>1</v>
       </c>
       <c r="AH11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ11" s="6" t="s">
+      <c r="AK11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK11" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL11" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="4" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="C12" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>237</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7" t="str" cm="1">
         <f t="array" ref="F12">_xlfn.IFS(AND(G12,H12),"prosumer",G12,"consumer",H12,"producer")</f>
         <v>consumer</v>
       </c>
       <c r="G12" s="7" t="b">
-        <f t="shared" ref="G12" si="12">IF(M12&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" ref="G12:G13" si="14">IF(M12&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H12" s="7" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H12:H13" si="15">IF(SUM(O12:S12)&gt;0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>3</v>
@@ -11862,93 +11928,101 @@
       <c r="M12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T12" s="6" t="s">
+      <c r="S12" s="6"/>
+      <c r="T12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U12" s="6"/>
       <c r="V12" s="6"/>
-      <c r="W12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="6" t="s">
+      <c r="W12" s="6"/>
+      <c r="X12" s="4">
+        <f t="shared" ref="X12:X13" si="16">IF(AND(H12=FALSE,G12=FALSE),1,0) + IF(AND(NOT(B12),D12&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="6" t="str">
+        <f t="shared" ref="Z12:Z13" si="17">C12</f>
+        <v>household_small_8</v>
+      </c>
+      <c r="AA12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA12" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z12,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB12" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA12,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="7"/>
       <c r="AD12" s="10">
         <v>0</v>
       </c>
       <c r="AE12" s="10">
         <v>0</v>
       </c>
-      <c r="AF12" s="6">
-        <v>1</v>
+      <c r="AF12" s="10">
+        <v>0</v>
       </c>
       <c r="AG12" s="6">
         <v>1</v>
       </c>
       <c r="AH12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ12" s="6" t="s">
+      <c r="AK12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK12" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL12" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="4" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="C13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>238</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7" t="str" cm="1">
         <f t="array" ref="F13">_xlfn.IFS(AND(G13,H13),"prosumer",G13,"consumer",H13,"producer")</f>
-        <v>prosumer</v>
+        <v>consumer</v>
       </c>
       <c r="G13" s="7" t="b">
-        <f>IF(M13&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H13" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>96</v>
@@ -11957,296 +12031,302 @@
         <v>18</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="6">
-        <v>10</v>
-      </c>
-      <c r="O13" s="6">
-        <v>40</v>
-      </c>
-      <c r="P13" s="6">
-        <v>180</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="6">
-        <v>20</v>
-      </c>
-      <c r="S13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T13" s="6" t="s">
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U13" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="V13" s="6"/>
-      <c r="W13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="6" t="s">
+      <c r="W13" s="6"/>
+      <c r="X13" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>household_small_9</v>
+      </c>
+      <c r="AA13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA13" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z13,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB13" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA13,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="7"/>
       <c r="AD13" s="10">
         <v>0</v>
       </c>
       <c r="AE13" s="10">
         <v>0</v>
       </c>
-      <c r="AF13" s="6">
-        <v>1</v>
+      <c r="AF13" s="10">
+        <v>0</v>
       </c>
       <c r="AG13" s="6">
-        <f t="shared" ref="AG13" si="13">AF13+3</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="6">
-        <f>AG13</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="6">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK13" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL13" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="4" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="B14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="7" t="str" cm="1">
         <f t="array" ref="F14">_xlfn.IFS(AND(G14,H14),"prosumer",G14,"consumer",H14,"producer")</f>
         <v>consumer</v>
       </c>
       <c r="G14" s="7" t="b">
-        <f t="shared" ref="G14:G18" si="14">IF(M14&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" ref="G14" si="18">IF(M14&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H14" s="7" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H14" si="19">IF(SUM(O14:S14)&gt;0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="N14" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T14" s="6" t="s">
+      <c r="S14" s="6"/>
+      <c r="T14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U14" s="6"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z14" s="6" t="s">
+      <c r="W14" s="6"/>
+      <c r="X14" s="4">
+        <f t="shared" ref="X14" si="20">IF(AND(H14=FALSE,G14=FALSE),1,0) + IF(AND(NOT(B14),D14&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="6" t="str">
+        <f t="shared" ref="Z14" si="21">C14</f>
+        <v>household_small_10</v>
+      </c>
+      <c r="AA14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA14" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z14,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB14" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA14,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="7"/>
       <c r="AD14" s="10">
         <v>0</v>
       </c>
       <c r="AE14" s="10">
         <v>0</v>
       </c>
-      <c r="AF14" s="6">
-        <v>1</v>
+      <c r="AF14" s="10">
+        <v>0</v>
       </c>
       <c r="AG14" s="6">
         <v>1</v>
       </c>
       <c r="AH14" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ14" s="6" t="s">
+      <c r="AK14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK14" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL14" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="4" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>14</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
-        <v>127</v>
+      <c r="C15" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="7" t="str" cm="1">
         <f t="array" ref="F15">_xlfn.IFS(AND(G15,H15),"prosumer",G15,"consumer",H15,"producer")</f>
-        <v>consumer</v>
+        <v>prosumer</v>
       </c>
       <c r="G15" s="7" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H15" s="7" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="N15" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>3</v>
+      </c>
+      <c r="P15" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>180</v>
+      </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T15" s="6" t="s">
+      <c r="S15" s="6"/>
+      <c r="T15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="4">
+      <c r="V15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="W15" s="6"/>
+      <c r="X15" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z15" s="6" t="s">
+      <c r="Y15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>household_small_prosumer</v>
+      </c>
+      <c r="AA15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA15" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z15,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB15" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA15,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="7"/>
       <c r="AD15" s="10">
         <v>0</v>
       </c>
       <c r="AE15" s="10">
         <v>0</v>
       </c>
-      <c r="AF15" s="6">
-        <v>1</v>
+      <c r="AF15" s="10">
+        <v>0</v>
       </c>
       <c r="AG15" s="6">
         <v>1</v>
       </c>
       <c r="AH15" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ15" s="6" t="s">
+      <c r="AK15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK15" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL15" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="4" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>15</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="5" t="s">
-        <v>126</v>
+      <c r="C16" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="7" t="str" cm="1">
         <f t="array" ref="F16">_xlfn.IFS(AND(G16,H16),"prosumer",G16,"consumer",H16,"producer")</f>
         <v>consumer</v>
       </c>
       <c r="G16" s="7" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H16" s="7" t="b">
@@ -12254,293 +12334,303 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="N16" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="N16" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T16" s="6" t="s">
+      <c r="S16" s="6"/>
+      <c r="T16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U16" s="6"/>
       <c r="V16" s="6"/>
-      <c r="W16" s="4">
+      <c r="W16" s="6"/>
+      <c r="X16" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z16" s="6" t="s">
+      <c r="Y16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>household_medium</v>
+      </c>
+      <c r="AA16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA16" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z16,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB16" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA16,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7"/>
       <c r="AD16" s="10">
         <v>0</v>
       </c>
       <c r="AE16" s="10">
         <v>0</v>
       </c>
-      <c r="AF16" s="6">
-        <v>1</v>
+      <c r="AF16" s="10">
+        <v>0</v>
       </c>
       <c r="AG16" s="6">
         <v>1</v>
       </c>
       <c r="AH16" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ16" s="6" t="s">
+      <c r="AK16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK16" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL16" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="4" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>16</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="5" t="s">
-        <v>125</v>
+      <c r="C17" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="7" t="str" cm="1">
         <f t="array" ref="F17">_xlfn.IFS(AND(G17,H17),"prosumer",G17,"consumer",H17,"producer")</f>
-        <v>consumer</v>
+        <v>prosumer</v>
       </c>
       <c r="G17" s="7" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G17" si="22">IF(M17&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H17" s="7" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="N17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>6</v>
+      </c>
+      <c r="P17" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>180</v>
+      </c>
       <c r="R17" s="6"/>
-      <c r="S17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T17" s="6" t="s">
+      <c r="S17" s="6">
+        <v>10</v>
+      </c>
+      <c r="T17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="4">
+      <c r="V17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="W17" s="6"/>
+      <c r="X17" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z17" s="6" t="s">
+      <c r="Y17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>household_medium_prosumer</v>
+      </c>
+      <c r="AA17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA17" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z17,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB17" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA17,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="7"/>
       <c r="AD17" s="10">
         <v>0</v>
       </c>
       <c r="AE17" s="10">
         <v>0</v>
       </c>
-      <c r="AF17" s="6">
-        <v>1</v>
+      <c r="AF17" s="10">
+        <v>0</v>
       </c>
       <c r="AG17" s="6">
         <v>1</v>
       </c>
       <c r="AH17" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ17" s="6" t="s">
+      <c r="AK17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK17" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL17" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="4" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>17</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="5" t="s">
-        <v>124</v>
+      <c r="C18" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="7" t="str" cm="1">
         <f t="array" ref="F18">_xlfn.IFS(AND(G18,H18),"prosumer",G18,"consumer",H18,"producer")</f>
-        <v>prosumer</v>
+        <v>consumer</v>
       </c>
       <c r="G18" s="7" t="b">
-        <f t="shared" si="14"/>
+        <f>IF(M18&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H18" s="7" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="N18" s="6">
-        <v>20</v>
-      </c>
-      <c r="O18" s="6">
-        <v>40</v>
-      </c>
-      <c r="P18" s="6">
-        <v>180</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N18" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T18" s="6" t="s">
+      <c r="S18" s="6"/>
+      <c r="T18" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U18" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="V18" s="6"/>
-      <c r="W18" s="4">
+      <c r="W18" s="6"/>
+      <c r="X18" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z18" s="6" t="s">
+      <c r="Y18" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>household_big</v>
+      </c>
+      <c r="AA18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA18" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z18,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB18" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA18,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7"/>
       <c r="AD18" s="10">
         <v>0</v>
       </c>
       <c r="AE18" s="10">
         <v>0</v>
       </c>
-      <c r="AF18" s="6">
-        <v>1</v>
+      <c r="AF18" s="10">
+        <v>0</v>
       </c>
       <c r="AG18" s="6">
         <v>1</v>
       </c>
       <c r="AH18" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ18" s="6" t="s">
+      <c r="AK18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK18" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL18" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="4" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>18</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -12549,7 +12639,7 @@
         <v>prosumer</v>
       </c>
       <c r="G19" s="7" t="b">
-        <f t="shared" ref="G19" si="15">IF(M19&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H19" s="7" t="b">
@@ -12557,10 +12647,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>96</v>
@@ -12569,105 +12659,104 @@
         <v>18</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="N19" s="6">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="N19" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="O19" s="6">
+        <v>10</v>
+      </c>
+      <c r="P19" s="6">
         <v>40</v>
       </c>
-      <c r="P19" s="6">
+      <c r="Q19" s="6">
         <v>180</v>
       </c>
-      <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T19" s="6" t="s">
+      <c r="S19" s="6"/>
+      <c r="T19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U19" s="6" t="s">
+      <c r="V19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="V19" s="6"/>
-      <c r="W19" s="4">
+      <c r="W19" s="6"/>
+      <c r="X19" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z19" s="6" t="s">
+      <c r="Y19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>household_big_prosumer</v>
+      </c>
+      <c r="AA19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA19" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z19,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB19" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA19,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="7"/>
       <c r="AD19" s="10">
         <v>0</v>
       </c>
       <c r="AE19" s="10">
         <v>0</v>
       </c>
-      <c r="AF19" s="6">
-        <v>1</v>
+      <c r="AF19" s="10">
+        <v>0</v>
       </c>
       <c r="AG19" s="6">
-        <f>AF19+6</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AH19" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ19" s="6" t="s">
+      <c r="AK19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK19" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL19" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="4" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7" t="str" cm="1">
         <f t="array" ref="F20">_xlfn.IFS(AND(G20,H20),"prosumer",G20,"consumer",H20,"producer")</f>
-        <v>prosumer</v>
+        <v>consumer</v>
       </c>
       <c r="G20" s="7" t="b">
-        <f t="shared" ref="G20" si="16">IF(M20&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H20" s="7" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>3</v>
@@ -12679,99 +12768,87 @@
         <v>18</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N20" s="6">
-        <v>20</v>
-      </c>
-      <c r="O20" s="6">
-        <v>40</v>
-      </c>
-      <c r="P20" s="6">
-        <v>180</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N20" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T20" s="6" t="s">
+      <c r="S20" s="6"/>
+      <c r="T20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U20" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="V20" s="6"/>
-      <c r="W20" s="4">
+      <c r="W20" s="6"/>
+      <c r="X20" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>82</v>
+      <c r="Y20" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="Z20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA20" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z20,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB20" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA20,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="7"/>
       <c r="AD20" s="10">
         <v>0</v>
       </c>
       <c r="AE20" s="10">
         <v>0</v>
       </c>
-      <c r="AF20" s="6">
-        <v>1</v>
+      <c r="AF20" s="10">
+        <v>0</v>
       </c>
       <c r="AG20" s="6">
-        <f>AF20+6</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ20" s="6" t="s">
+      <c r="AK20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK20" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL20" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="4" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="7" t="str" cm="1">
         <f t="array" ref="F21">_xlfn.IFS(AND(G21,H21),"prosumer",G21,"consumer",H21,"producer")</f>
         <v>consumer</v>
       </c>
       <c r="G21" s="7" t="b">
-        <f t="shared" ref="G21" si="17">IF(M21&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" ref="G21" si="23">IF(M21&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H21" s="7" t="b">
@@ -12779,7 +12856,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>3</v>
@@ -12791,75 +12868,78 @@
         <v>18</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="N21" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="N21" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T21" s="6" t="s">
+      <c r="S21" s="6"/>
+      <c r="T21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="6"/>
       <c r="V21" s="6"/>
-      <c r="W21" s="4">
+      <c r="W21" s="6"/>
+      <c r="X21" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="6" t="s">
-        <v>228</v>
+      <c r="Y21" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="Z21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA21" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z21,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB21" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA21,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="7"/>
       <c r="AD21" s="10">
         <v>0</v>
       </c>
       <c r="AE21" s="10">
         <v>0</v>
       </c>
-      <c r="AF21" s="6">
-        <v>1</v>
+      <c r="AF21" s="10">
+        <v>0</v>
       </c>
       <c r="AG21" s="6">
         <v>1</v>
       </c>
       <c r="AH21" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ21" s="6" t="s">
+      <c r="AK21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK21" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL21" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="4" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>21</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="13" t="s">
-        <v>119</v>
+      <c r="C22" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -12868,7 +12948,7 @@
         <v>prosumer</v>
       </c>
       <c r="G22" s="7" t="b">
-        <f t="shared" ref="G22:G23" si="18">IF(M22&lt;&gt;"",TRUE,FALSE)</f>
+        <f>IF(M22&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H22" s="7" t="b">
@@ -12879,7 +12959,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>96</v>
@@ -12888,387 +12968,1349 @@
         <v>18</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N22" s="6">
+        <v>46</v>
+      </c>
+      <c r="N22" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
         <v>10</v>
       </c>
-      <c r="O22" s="6">
+      <c r="P22" s="6">
         <v>40</v>
       </c>
-      <c r="P22" s="6">
+      <c r="Q22" s="6">
         <v>180</v>
       </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6">
-        <v>3</v>
-      </c>
-      <c r="S22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T22" s="6" t="s">
+      <c r="R22" s="6"/>
+      <c r="S22" s="6">
+        <v>20</v>
+      </c>
+      <c r="T22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U22" s="6" t="s">
+      <c r="V22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="V22" s="6"/>
-      <c r="W22" s="4">
+      <c r="W22" s="6"/>
+      <c r="X22" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="6" t="s">
-        <v>84</v>
+      <c r="Y22" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="Z22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA22" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z22,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB22" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA22,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="7"/>
       <c r="AD22" s="10">
         <v>0</v>
       </c>
       <c r="AE22" s="10">
         <v>0</v>
       </c>
-      <c r="AF22" s="6">
-        <v>1</v>
+      <c r="AF22" s="10">
+        <v>0</v>
       </c>
       <c r="AG22" s="6">
-        <f>AF22+2</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="6">
+        <v>18</v>
+      </c>
+      <c r="AK22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK22" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL22" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="4" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>22</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="13" t="s">
-        <v>120</v>
+      <c r="C23" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="F23" s="7" t="str" cm="1">
         <f t="array" ref="F23">_xlfn.IFS(AND(G23,H23),"prosumer",G23,"consumer",H23,"producer")</f>
-        <v>prosumer</v>
+        <v>consumer</v>
       </c>
       <c r="G23" s="7" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="G23:G27" si="24">IF(M23&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H23" s="7" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="N23" s="6">
-        <v>20</v>
-      </c>
-      <c r="O23" s="6">
-        <v>40</v>
-      </c>
-      <c r="P23" s="6">
-        <v>180</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N23" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
-      <c r="R23" s="6">
-        <v>6</v>
-      </c>
-      <c r="S23" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T23" s="6" t="s">
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U23" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="V23" s="6"/>
-      <c r="W23" s="4">
+      <c r="W23" s="6"/>
+      <c r="X23" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X23" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>87</v>
+      <c r="Y23" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="Z23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA23" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z23,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="10">
-        <v>0</v>
-      </c>
+      <c r="AB23" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA23,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="7"/>
       <c r="AD23" s="10">
         <v>0</v>
       </c>
       <c r="AE23" s="10">
         <v>0</v>
       </c>
-      <c r="AF23" s="6">
-        <v>1</v>
+      <c r="AF23" s="10">
+        <v>0</v>
       </c>
       <c r="AG23" s="6">
-        <f t="shared" ref="AG23:AG24" si="19">AF23+2</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ23" s="6" t="s">
+      <c r="AK23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK23" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL23" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="4" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>23</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="13" t="s">
-        <v>121</v>
+      <c r="C24" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="F24" s="7" t="str" cm="1">
         <f t="array" ref="F24">_xlfn.IFS(AND(G24,H24),"prosumer",G24,"consumer",H24,"producer")</f>
-        <v>prosumer</v>
+        <v>consumer</v>
       </c>
       <c r="G24" s="7" t="b">
-        <f t="shared" ref="G24" si="20">IF(M24&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="H24" s="7" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M24" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N24" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB24" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA24,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL24" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" cm="1">
+        <f t="array" aca="1" ref="A25" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="7" t="str" cm="1">
+        <f t="array" ref="F25">_xlfn.IFS(AND(G25,H25),"prosumer",G25,"consumer",H25,"producer")</f>
+        <v>consumer</v>
+      </c>
+      <c r="G25" s="7" t="b">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="N25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB25" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA25,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL25" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" cm="1">
+        <f t="array" aca="1" ref="A26" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="7" t="str" cm="1">
+        <f t="array" ref="F26">_xlfn.IFS(AND(G26,H26),"prosumer",G26,"consumer",H26,"producer")</f>
+        <v>consumer</v>
+      </c>
+      <c r="G26" s="7" t="b">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N26" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB26" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA26,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL26" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" cm="1">
+        <f t="array" aca="1" ref="A27" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="7" t="str" cm="1">
+        <f t="array" ref="F27">_xlfn.IFS(AND(G27,H27),"prosumer",G27,"consumer",H27,"producer")</f>
+        <v>prosumer</v>
+      </c>
+      <c r="G27" s="7" t="b">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="N27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>20</v>
+      </c>
+      <c r="P27" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>180</v>
+      </c>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="W27" s="6"/>
+      <c r="X27" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB27" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA27,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL27" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" cm="1">
+        <f t="array" aca="1" ref="A28" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7" t="str" cm="1">
+        <f t="array" ref="F28">_xlfn.IFS(AND(G28,H28),"prosumer",G28,"consumer",H28,"producer")</f>
+        <v>prosumer</v>
+      </c>
+      <c r="G28" s="7" t="b">
+        <f t="shared" ref="G28" si="25">IF(M28&lt;&gt;"",TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>30</v>
+      </c>
+      <c r="P28" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>180</v>
+      </c>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="W28" s="6"/>
+      <c r="X28" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB28" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA28,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL28" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" cm="1">
+        <f t="array" aca="1" ref="A29" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7" t="str" cm="1">
+        <f t="array" ref="F29">_xlfn.IFS(AND(G29,H29),"prosumer",G29,"consumer",H29,"producer")</f>
+        <v>prosumer</v>
+      </c>
+      <c r="G29" s="7" t="b">
+        <f t="shared" ref="G29" si="26">IF(M29&lt;&gt;"",TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>20</v>
+      </c>
+      <c r="P29" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>180</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="W29" s="6"/>
+      <c r="X29" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB29" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA29,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL29" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" cm="1">
+        <f t="array" aca="1" ref="A30" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="7" t="str" cm="1">
+        <f t="array" ref="F30">_xlfn.IFS(AND(G30,H30),"prosumer",G30,"consumer",H30,"producer")</f>
+        <v>consumer</v>
+      </c>
+      <c r="G30" s="7" t="b">
+        <f t="shared" ref="G30" si="27">IF(M30&lt;&gt;"",TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="N30" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB30" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA30,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL30" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" cm="1">
+        <f t="array" aca="1" ref="A31" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7" t="str" cm="1">
+        <f t="array" ref="F31">_xlfn.IFS(AND(G31,H31),"prosumer",G31,"consumer",H31,"producer")</f>
+        <v>prosumer</v>
+      </c>
+      <c r="G31" s="7" t="b">
+        <f t="shared" ref="G31:G32" si="28">IF(M31&lt;&gt;"",TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N31" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>10</v>
+      </c>
+      <c r="P31" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>180</v>
+      </c>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6">
+        <v>3</v>
+      </c>
+      <c r="T31" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="W31" s="6"/>
+      <c r="X31" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB31" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA31,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL31" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" cm="1">
+        <f t="array" aca="1" ref="A32" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7" t="str" cm="1">
+        <f t="array" ref="F32">_xlfn.IFS(AND(G32,H32),"prosumer",G32,"consumer",H32,"producer")</f>
+        <v>prosumer</v>
+      </c>
+      <c r="G32" s="7" t="b">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N32" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>20</v>
+      </c>
+      <c r="P32" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>180</v>
+      </c>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="W32" s="6"/>
+      <c r="X32" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB32" s="7" t="b">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA32,Description!$H$2:$H$7,0)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="AC32" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL32" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" cm="1">
+        <f t="array" aca="1" ref="A33" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7" t="str" cm="1">
+        <f t="array" ref="F33">_xlfn.IFS(AND(G33,H33),"prosumer",G33,"consumer",H33,"producer")</f>
+        <v>prosumer</v>
+      </c>
+      <c r="G33" s="7" t="b">
+        <f t="shared" ref="G33" si="29">IF(M33&lt;&gt;"",TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N33" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
         <v>40</v>
       </c>
-      <c r="O24" s="6">
+      <c r="P33" s="6">
         <v>40</v>
       </c>
-      <c r="P24" s="6">
+      <c r="Q33" s="6">
         <v>180</v>
       </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6">
+      <c r="R33" s="6"/>
+      <c r="S33" s="6">
         <v>12</v>
       </c>
-      <c r="S24" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T24" s="6" t="s">
+      <c r="T33" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="U24" s="6" t="s">
+      <c r="V33" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="V24" s="6"/>
-      <c r="W24" s="4">
-        <f t="shared" ref="W24" si="21">IF(AND(H24=FALSE,G24=FALSE),1,0) + IF(AND(NOT(B24),D24&gt;0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="6" t="s">
+      <c r="W33" s="6"/>
+      <c r="X33" s="4">
+        <f t="shared" ref="X33" si="30">IF(AND(H33=FALSE,G33=FALSE),1,0) + IF(AND(NOT(B33),D33&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Z24" s="6" t="s">
+      <c r="AA33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA24" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!Z24,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="AE24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="6">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="AH24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="6" t="s">
+      <c r="AB33" s="7">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA33,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ24" s="6" t="s">
+      <c r="AK33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK24" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="30:30" x14ac:dyDescent="0.3">
-      <c r="AD69" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="30:30" x14ac:dyDescent="0.3">
-      <c r="AD70" s="3">
+      <c r="AL33" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="AE78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="AE79" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK18" xr:uid="{2C4C512D-720B-4883-9A57-F76C3249E6F9}"/>
+  <autoFilter ref="A1:AL27" xr:uid="{2C4C512D-720B-4883-9A57-F76C3249E6F9}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B24">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="False">
+  <conditionalFormatting sqref="B2:B33">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="False">
       <formula>NOT(ISERROR(SEARCH("False",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="True">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F24">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+  <conditionalFormatting sqref="F2:F33">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"prosumer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>"consumer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>"producer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H24">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="False">
+  <conditionalFormatting sqref="G2:H33">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="False">
       <formula>NOT(ISERROR(SEARCH("False",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="True">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S24">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="False">
-      <formula>NOT(ISERROR(SEARCH("False",S2)))</formula>
+  <conditionalFormatting sqref="N2:N33">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="False">
+      <formula>NOT(ISERROR(SEARCH("False",N2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="True">
-      <formula>NOT(ISERROR(SEARCH("True",S2)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="True">
+      <formula>NOT(ISERROR(SEARCH("True",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X24">
-    <cfRule type="containsText" dxfId="3" priority="31" operator="containsText" text="False">
-      <formula>NOT(ISERROR(SEARCH("False",X2)))</formula>
+  <conditionalFormatting sqref="T2:T33">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="False">
+      <formula>NOT(ISERROR(SEARCH("False",T2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="32" operator="containsText" text="True">
-      <formula>NOT(ISERROR(SEARCH("True",X2)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="True">
+      <formula>NOT(ISERROR(SEARCH("True",T2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AB24">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="False">
-      <formula>NOT(ISERROR(SEARCH("False",AA2)))</formula>
+  <conditionalFormatting sqref="Y2:Y33">
+    <cfRule type="containsText" dxfId="3" priority="33" operator="containsText" text="False">
+      <formula>NOT(ISERROR(SEARCH("False",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="True">
-      <formula>NOT(ISERROR(SEARCH("True",AA2)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="34" operator="containsText" text="True">
+      <formula>NOT(ISERROR(SEARCH("True",Y2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AC33">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="False">
+      <formula>NOT(ISERROR(SEARCH("False",AB2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="True">
+      <formula>NOT(ISERROR(SEARCH("True",AB2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S24" xr:uid="{85FFB186-91F6-47EB-A5CB-9D04D285D42D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T33" xr:uid="{85FFB186-91F6-47EB-A5CB-9D04D285D42D}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T24" xr:uid="{01172BCE-5A26-4719-918C-96329610A20E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U33" xr:uid="{01172BCE-5A26-4719-918C-96329610A20E}">
       <formula1>"BT,MT"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="plant installed capacity cannot exceed 1MW" sqref="N2:Q24" xr:uid="{6F7FE448-E91D-4E77-B80B-A98263996A73}">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="plant installed capacity cannot exceed 1MW" sqref="O2:R33" xr:uid="{6F7FE448-E91D-4E77-B80B-A98263996A73}">
       <formula1>1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U24" xr:uid="{60410583-7289-4BAD-90FD-B471010061C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V33" xr:uid="{60410583-7289-4BAD-90FD-B471010061C3}">
       <formula1>"roof,ground"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Grants + Debt exceeding 100%" error="Grants + Debt exceeding 100%_x000a__x000a_grant_private_% + grant_pnrr_% + debt_% + equity_% must be equal to 100%_x000a__x000a_Reduce the grants or the debt" sqref="AC2:AE24" xr:uid="{48819E97-B399-45DA-AD03-6FC3A5AEB5E2}">
-      <formula1>$AC2 + $AD2 + $AE2&lt;=1</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Grants + Debt exceeding 100%" error="Grants + Debt exceeding 100%_x000a__x000a_grant_private_% + grant_pnrr_% + debt_% + equity_% must be equal to 100%_x000a__x000a_Reduce the grants or the debt" sqref="AD2:AF33" xr:uid="{48819E97-B399-45DA-AD03-6FC3A5AEB5E2}">
+      <formula1>$AD2 + $AE2 + $AF2&lt;=1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13281,49 +14323,49 @@
           <x14:formula1>
             <xm:f>Description!$D$2:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I24</xm:sqref>
+          <xm:sqref>I2:I33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC008ED6-6355-45F5-9DBD-CCBD74C5A461}">
           <x14:formula1>
             <xm:f>Description!$D$2:$D$17</xm:f>
           </x14:formula1>
-          <xm:sqref>I19:I24</xm:sqref>
+          <xm:sqref>I28:I33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD443A65-3734-48C1-B560-F12A7415CBFD}">
           <x14:formula1>
             <xm:f>Description!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J24</xm:sqref>
+          <xm:sqref>J2:J33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2383469E-1566-4380-B139-5963E7A88934}">
           <x14:formula1>
             <xm:f>Description!$M$2:$M$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L24</xm:sqref>
+          <xm:sqref>L2:L33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{467C03B6-AD11-4E4E-980D-CBB7F4C59BD8}">
           <x14:formula1>
             <xm:f>Description!$F$9:$F$12</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L24</xm:sqref>
+          <xm:sqref>L2:L33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C538860B-1C4B-4D00-9A8C-9B80856FFBCB}">
           <x14:formula1>
             <xm:f>Description!$H$2:$H$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Z2:Z24</xm:sqref>
+          <xm:sqref>AA2:AA33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC2CD263-0B7E-44F3-9CA6-06C7F1BEDE82}">
           <x14:formula1>
             <xm:f>Description!$K$2:$K$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K24</xm:sqref>
+          <xm:sqref>K2:K33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{024A08E9-B380-48E6-8BAA-C527110774A6}">
           <x14:formula1>
             <xm:f>Description!$Q$2:$Q$28</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M24</xm:sqref>
+          <xm:sqref>M2:M33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/users CACER.xlsx
+++ b/users CACER.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faleotti\Documents\Git\CACER_Simulator - Bolletta CER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rsericerca-my.sharepoint.com/personal/rollo_rse-web_it/Documents/Desktop/CACER simulator - public repo/CACER-simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E99C706-0CC8-485E-A0B6-8EF59C1859B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{9E99C706-0CC8-485E-A0B6-8EF59C1859B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8D876E4-6241-492A-8840-97A8C25E37B7}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{5737FCCB-D602-492E-A685-31017A5527F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5737FCCB-D602-492E-A685-31017A5527F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
     <sheet name="Utenti" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Utenti!$A$1:$AL$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Utenti!$A$1:$AQ$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,11 +57,11 @@
     <author>tc={DA41E16E-E512-45CD-8CBC-1D817FB76E4C}</author>
     <author>tc={B8C28A67-A4F9-4B4F-BC15-B091B3484E7A}</author>
     <author>tc={A5F3336A-4780-49F9-B875-1892D205E932}</author>
+    <author>tc={908640CA-A740-4D15-8D8C-3094188E37B8}</author>
     <author>tc={12AE6FD8-64AB-46B1-AA69-47A2596D9860}</author>
     <author>tc={AECB4510-190E-4E92-B990-F82EEABA9D9C}</author>
     <author>tc={3B0E736C-120A-4B78-8036-9EA1F90DDF65}</author>
     <author>tc={B7E16D6F-AB9B-4889-97D0-84423EA2CFC7}</author>
-    <author>tc={908640CA-A740-4D15-8D8C-3094188E37B8}</author>
     <author>tc={50DEC25D-CFC3-4D3D-B75F-B27DF52CCC6A}</author>
     <author>tc={7A62384E-BA1E-46A7-80A4-FCEE2538452F}</author>
     <author>tc={38E56F07-0460-40F8-9A41-084D2EC69AF2}</author>
@@ -200,7 +200,15 @@
     90° East, 270° West</t>
       </text>
     </comment>
-    <comment ref="R1" authorId="15" shapeId="0" xr:uid="{12AE6FD8-64AB-46B1-AA69-47A2596D9860}">
+    <comment ref="R1" authorId="15" shapeId="0" xr:uid="{908640CA-A740-4D15-8D8C-3094188E37B8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Type of mounting for the PV generator: ground or roof.</t>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="16" shapeId="0" xr:uid="{12AE6FD8-64AB-46B1-AA69-47A2596D9860}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -208,7 +216,7 @@
     Not yet completed!</t>
       </text>
     </comment>
-    <comment ref="S1" authorId="16" shapeId="0" xr:uid="{AECB4510-190E-4E92-B990-F82EEABA9D9C}">
+    <comment ref="T1" authorId="17" shapeId="0" xr:uid="{AECB4510-190E-4E92-B990-F82EEABA9D9C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -216,7 +224,7 @@
     Capacity storage in [kWh].</t>
       </text>
     </comment>
-    <comment ref="T1" authorId="17" shapeId="0" xr:uid="{3B0E736C-120A-4B78-8036-9EA1F90DDF65}">
+    <comment ref="U1" authorId="18" shapeId="0" xr:uid="{3B0E736C-120A-4B78-8036-9EA1F90DDF65}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -224,20 +232,12 @@
     If “true” the photovoltaic generators is new (old plants cannot access the incentives).</t>
       </text>
     </comment>
-    <comment ref="U1" authorId="18" shapeId="0" xr:uid="{B7E16D6F-AB9B-4889-97D0-84423EA2CFC7}">
+    <comment ref="V1" authorId="19" shapeId="0" xr:uid="{B7E16D6F-AB9B-4889-97D0-84423EA2CFC7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Voltage level of the user.</t>
-      </text>
-    </comment>
-    <comment ref="V1" authorId="19" shapeId="0" xr:uid="{908640CA-A740-4D15-8D8C-3094188E37B8}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Type of mounting for the PV generator: ground or roof.</t>
       </text>
     </comment>
     <comment ref="W1" authorId="20" shapeId="0" xr:uid="{50DEC25D-CFC3-4D3D-B75F-B27DF52CCC6A}">
@@ -248,7 +248,7 @@
     If “true” a medium voltage station is installed (the station costs are added to the total capex of the investment).</t>
       </text>
     </comment>
-    <comment ref="Y1" authorId="21" shapeId="0" xr:uid="{7A62384E-BA1E-46A7-80A4-FCEE2538452F}">
+    <comment ref="AD1" authorId="21" shapeId="0" xr:uid="{7A62384E-BA1E-46A7-80A4-FCEE2538452F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -256,7 +256,7 @@
     If “true” the user partecipate to the CACER configuration.</t>
       </text>
     </comment>
-    <comment ref="Z1" authorId="22" shapeId="0" xr:uid="{38E56F07-0460-40F8-9A41-084D2EC69AF2}">
+    <comment ref="AE1" authorId="22" shapeId="0" xr:uid="{38E56F07-0460-40F8-9A41-084D2EC69AF2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -264,7 +264,7 @@
     Denomination for the user type used in all plots.</t>
       </text>
     </comment>
-    <comment ref="AA1" authorId="23" shapeId="0" xr:uid="{15D9A42A-7BD4-4141-BA94-4E77475DD903}">
+    <comment ref="AF1" authorId="23" shapeId="0" xr:uid="{15D9A42A-7BD4-4141-BA94-4E77475DD903}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -272,7 +272,7 @@
     Funding schemes (see “Description” sheet).</t>
       </text>
     </comment>
-    <comment ref="AC1" authorId="24" shapeId="0" xr:uid="{E3C06090-A28B-4B55-82BD-B8E1C84A22B9}">
+    <comment ref="AH1" authorId="24" shapeId="0" xr:uid="{E3C06090-A28B-4B55-82BD-B8E1C84A22B9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -280,7 +280,7 @@
     If “true” it's the condominium shared POD, so electricity bills savings can be allocated to all other users.</t>
       </text>
     </comment>
-    <comment ref="AD1" authorId="25" shapeId="0" xr:uid="{E508C489-8705-4582-840D-BCEFBCFF4B3D}">
+    <comment ref="AI1" authorId="25" shapeId="0" xr:uid="{E508C489-8705-4582-840D-BCEFBCFF4B3D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -288,7 +288,7 @@
     Private grant in percentage on the total investment.</t>
       </text>
     </comment>
-    <comment ref="AE1" authorId="26" shapeId="0" xr:uid="{E20F890E-E72E-458E-A9C5-24924FE1245D}">
+    <comment ref="AJ1" authorId="26" shapeId="0" xr:uid="{E20F890E-E72E-458E-A9C5-24924FE1245D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -296,7 +296,7 @@
     X% over plant capex. It could include also  forms of grants other than PNRR</t>
       </text>
     </comment>
-    <comment ref="AF1" authorId="27" shapeId="0" xr:uid="{2DF3DF03-43C9-4836-93E7-3A28F8C1F169}">
+    <comment ref="AK1" authorId="27" shapeId="0" xr:uid="{2DF3DF03-43C9-4836-93E7-3A28F8C1F169}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -304,7 +304,7 @@
      X% over the total plant capex (inclusive of grants!). The equity is the remaing percentage (equity% = 100% - grant_private_% - grant_pnrr_% - debt_%) </t>
       </text>
     </comment>
-    <comment ref="AG1" authorId="28" shapeId="0" xr:uid="{63EC1CC8-40BD-4660-ABF4-E7EBB04A0828}">
+    <comment ref="AL1" authorId="28" shapeId="0" xr:uid="{63EC1CC8-40BD-4660-ABF4-E7EBB04A0828}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -312,7 +312,7 @@
     Month disbursement. Starting from 1.</t>
       </text>
     </comment>
-    <comment ref="AH1" authorId="29" shapeId="0" xr:uid="{EF44489C-73E1-4FE5-B9B5-C2EFEE56025F}">
+    <comment ref="AM1" authorId="29" shapeId="0" xr:uid="{EF44489C-73E1-4FE5-B9B5-C2EFEE56025F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -320,7 +320,7 @@
     Month completion of works and generator connection. Starting from 1.</t>
       </text>
     </comment>
-    <comment ref="AI1" authorId="30" shapeId="0" xr:uid="{87ACBEA5-1066-451D-B0A3-787AF80EA5CF}">
+    <comment ref="AN1" authorId="30" shapeId="0" xr:uid="{87ACBEA5-1066-451D-B0A3-787AF80EA5CF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -328,7 +328,7 @@
     Month entry in CACER configuration. Starting from 1.</t>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="31" shapeId="0" xr:uid="{779ADCF1-5B74-4C18-AA13-EACCC3143AF6}">
+    <comment ref="AO1" authorId="31" shapeId="0" xr:uid="{779ADCF1-5B74-4C18-AA13-EACCC3143AF6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -336,7 +336,7 @@
     Month exit CACER configuration. To set the last month tiping “end”.</t>
       </text>
     </comment>
-    <comment ref="AK1" authorId="32" shapeId="0" xr:uid="{5DCAE571-1906-445E-A076-3D50F36C58A3}">
+    <comment ref="AP1" authorId="32" shapeId="0" xr:uid="{5DCAE571-1906-445E-A076-3D50F36C58A3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -344,7 +344,7 @@
     Primary station id. Insert any ID (number or string) unique for the given substation. It will be needed for the calculation of the premium tariff.</t>
       </text>
     </comment>
-    <comment ref="AL1" authorId="33" shapeId="0" xr:uid="{6F64DC5C-FA47-400C-8835-BEEC006AF158}">
+    <comment ref="AQ1" authorId="33" shapeId="0" xr:uid="{6F64DC5C-FA47-400C-8835-BEEC006AF158}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -379,7 +379,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="245">
   <si>
     <t>Pmax</t>
   </si>
@@ -1084,6 +1084,36 @@
   </si>
   <si>
     <t>household_small_2</t>
+  </si>
+  <si>
+    <t>building_archetype</t>
+  </si>
+  <si>
+    <t>hvac_type</t>
+  </si>
+  <si>
+    <t>th_comfort_heating</t>
+  </si>
+  <si>
+    <t>th_comfort_cooling</t>
+  </si>
+  <si>
+    <t>small_condominium_1</t>
+  </si>
+  <si>
+    <t>autonomous</t>
+  </si>
+  <si>
+    <t>small_house_1</t>
+  </si>
+  <si>
+    <t>centralized</t>
+  </si>
+  <si>
+    <t>highschool</t>
+  </si>
+  <si>
+    <t>heat_load</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1137,13 +1167,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1152,20 +1175,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1261,9 +1270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1273,22 +1279,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,11 +1300,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1716,61 +1745,61 @@
   <threadedComment ref="Q1" dT="2024-09-16T17:14:28.02" personId="{0E490BA2-9DF1-4D03-A4F7-6B638CC68909}" id="{5BA02FF7-922D-4D3C-8E2C-515D13578B37}" parentId="{A5F3336A-4780-49F9-B875-1892D205E932}">
     <text>90° East, 270° West</text>
   </threadedComment>
-  <threadedComment ref="R1" dT="2025-03-27T14:41:49.72" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{12AE6FD8-64AB-46B1-AA69-47A2596D9860}">
+  <threadedComment ref="R1" dT="2025-03-27T14:10:19.45" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{908640CA-A740-4D15-8D8C-3094188E37B8}">
+    <text>Type of mounting for the PV generator: ground or roof.</text>
+  </threadedComment>
+  <threadedComment ref="S1" dT="2025-03-27T14:41:49.72" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{12AE6FD8-64AB-46B1-AA69-47A2596D9860}">
     <text>Not yet completed!</text>
   </threadedComment>
-  <threadedComment ref="S1" dT="2025-03-27T14:08:54.82" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{AECB4510-190E-4E92-B990-F82EEABA9D9C}">
+  <threadedComment ref="T1" dT="2025-03-27T14:08:54.82" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{AECB4510-190E-4E92-B990-F82EEABA9D9C}">
     <text>Capacity storage in [kWh].</text>
   </threadedComment>
-  <threadedComment ref="T1" dT="2025-03-27T14:09:50.75" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{3B0E736C-120A-4B78-8036-9EA1F90DDF65}">
+  <threadedComment ref="U1" dT="2025-03-27T14:09:50.75" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{3B0E736C-120A-4B78-8036-9EA1F90DDF65}">
     <text>If “true” the photovoltaic generators is new (old plants cannot access the incentives).</text>
   </threadedComment>
-  <threadedComment ref="U1" dT="2025-03-27T14:10:02.70" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{B7E16D6F-AB9B-4889-97D0-84423EA2CFC7}">
+  <threadedComment ref="V1" dT="2025-03-27T14:10:02.70" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{B7E16D6F-AB9B-4889-97D0-84423EA2CFC7}">
     <text>Voltage level of the user.</text>
-  </threadedComment>
-  <threadedComment ref="V1" dT="2025-03-27T14:10:19.45" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{908640CA-A740-4D15-8D8C-3094188E37B8}">
-    <text>Type of mounting for the PV generator: ground or roof.</text>
   </threadedComment>
   <threadedComment ref="W1" dT="2025-03-27T14:11:18.79" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{50DEC25D-CFC3-4D3D-B75F-B27DF52CCC6A}">
     <text>If “true” a medium voltage station is installed (the station costs are added to the total capex of the investment).</text>
   </threadedComment>
-  <threadedComment ref="Y1" dT="2025-03-27T14:11:51.87" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{7A62384E-BA1E-46A7-80A4-FCEE2538452F}">
+  <threadedComment ref="AD1" dT="2025-03-27T14:11:51.87" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{7A62384E-BA1E-46A7-80A4-FCEE2538452F}">
     <text>If “true” the user partecipate to the CACER configuration.</text>
   </threadedComment>
-  <threadedComment ref="Z1" dT="2025-03-27T14:12:07.61" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{38E56F07-0460-40F8-9A41-084D2EC69AF2}">
+  <threadedComment ref="AE1" dT="2025-03-27T14:12:07.61" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{38E56F07-0460-40F8-9A41-084D2EC69AF2}">
     <text>Denomination for the user type used in all plots.</text>
   </threadedComment>
-  <threadedComment ref="AA1" dT="2025-03-27T14:12:45.06" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{15D9A42A-7BD4-4141-BA94-4E77475DD903}">
+  <threadedComment ref="AF1" dT="2025-03-27T14:12:45.06" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{15D9A42A-7BD4-4141-BA94-4E77475DD903}">
     <text>Funding schemes (see “Description” sheet).</text>
   </threadedComment>
-  <threadedComment ref="AC1" dT="2025-03-27T14:13:27.31" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{E3C06090-A28B-4B55-82BD-B8E1C84A22B9}">
+  <threadedComment ref="AH1" dT="2025-03-27T14:13:27.31" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{E3C06090-A28B-4B55-82BD-B8E1C84A22B9}">
     <text>If “true” it's the condominium shared POD, so electricity bills savings can be allocated to all other users.</text>
   </threadedComment>
-  <threadedComment ref="AD1" dT="2025-03-27T14:18:52.18" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{E508C489-8705-4582-840D-BCEFBCFF4B3D}">
+  <threadedComment ref="AI1" dT="2025-03-27T14:18:52.18" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{E508C489-8705-4582-840D-BCEFBCFF4B3D}">
     <text>Private grant in percentage on the total investment.</text>
   </threadedComment>
-  <threadedComment ref="AE1" dT="2025-03-27T14:14:03.57" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{E20F890E-E72E-458E-A9C5-24924FE1245D}">
+  <threadedComment ref="AJ1" dT="2025-03-27T14:14:03.57" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{E20F890E-E72E-458E-A9C5-24924FE1245D}">
     <text>X% over plant capex. It could include also  forms of grants other than PNRR</text>
   </threadedComment>
-  <threadedComment ref="AF1" dT="2025-03-27T14:14:34.80" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{2DF3DF03-43C9-4836-93E7-3A28F8C1F169}">
+  <threadedComment ref="AK1" dT="2025-03-27T14:14:34.80" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{2DF3DF03-43C9-4836-93E7-3A28F8C1F169}">
     <text xml:space="preserve"> X% over the total plant capex (inclusive of grants!). The equity is the remaing percentage (equity% = 100% - grant_private_% - grant_pnrr_% - debt_%) </text>
   </threadedComment>
-  <threadedComment ref="AG1" dT="2025-03-27T14:14:49.04" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{63EC1CC8-40BD-4660-ABF4-E7EBB04A0828}">
+  <threadedComment ref="AL1" dT="2025-03-27T14:14:49.04" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{63EC1CC8-40BD-4660-ABF4-E7EBB04A0828}">
     <text>Month disbursement. Starting from 1.</text>
   </threadedComment>
-  <threadedComment ref="AH1" dT="2025-03-27T14:16:40.99" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{EF44489C-73E1-4FE5-B9B5-C2EFEE56025F}">
+  <threadedComment ref="AM1" dT="2025-03-27T14:16:40.99" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{EF44489C-73E1-4FE5-B9B5-C2EFEE56025F}">
     <text>Month completion of works and generator connection. Starting from 1.</text>
   </threadedComment>
-  <threadedComment ref="AI1" dT="2025-03-27T14:17:18.93" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{87ACBEA5-1066-451D-B0A3-787AF80EA5CF}">
+  <threadedComment ref="AN1" dT="2025-03-27T14:17:18.93" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{87ACBEA5-1066-451D-B0A3-787AF80EA5CF}">
     <text>Month entry in CACER configuration. Starting from 1.</text>
   </threadedComment>
-  <threadedComment ref="AJ1" dT="2025-03-27T14:18:19.82" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{779ADCF1-5B74-4C18-AA13-EACCC3143AF6}">
+  <threadedComment ref="AO1" dT="2025-03-27T14:18:19.82" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{779ADCF1-5B74-4C18-AA13-EACCC3143AF6}">
     <text>Month exit CACER configuration. To set the last month tiping “end”.</text>
   </threadedComment>
-  <threadedComment ref="AK1" dT="2025-03-27T14:15:51.32" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{5DCAE571-1906-445E-A076-3D50F36C58A3}">
+  <threadedComment ref="AP1" dT="2025-03-27T14:15:51.32" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{5DCAE571-1906-445E-A076-3D50F36C58A3}">
     <text>Primary station id. Insert any ID (number or string) unique for the given substation. It will be needed for the calculation of the premium tariff.</text>
   </threadedComment>
-  <threadedComment ref="AL1" dT="2025-03-27T14:16:02.88" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{6F64DC5C-FA47-400C-8835-BEEC006AF158}">
+  <threadedComment ref="AQ1" dT="2025-03-27T14:16:02.88" personId="{DF19B7C8-BDBC-4790-ABA5-7428AEE2A9AF}" id="{6F64DC5C-FA47-400C-8835-BEEC006AF158}">
     <text>Location of the user type.</text>
   </threadedComment>
 </ThreadedComments>
@@ -1781,67 +1810,77 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="3"/>
-    <col min="6" max="6" width="9.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="3"/>
-    <col min="8" max="8" width="32.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="9.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="32.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="3"/>
-    <col min="11" max="11" width="22.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="3"/>
-    <col min="13" max="13" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="3"/>
-    <col min="15" max="15" width="14.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="3"/>
-    <col min="17" max="17" width="26.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.875" style="3"/>
+    <col min="10" max="10" width="8.88671875" style="3"/>
+    <col min="11" max="11" width="22.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="3"/>
+    <col min="13" max="13" width="9.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="15" max="15" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="3"/>
+    <col min="17" max="17" width="26.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="3"/>
+    <col min="19" max="19" width="19.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
+    <col min="21" max="21" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="14" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S1" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1870,8 +1909,14 @@
       <c r="Q2" s="7" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1900,8 +1945,14 @@
       <c r="Q3" s="7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1914,10 +1965,10 @@
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="11" t="b">
+      <c r="I4" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -1933,7 +1984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1943,10 +1994,10 @@
       <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="11" t="b">
+      <c r="I5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -1959,7 +2010,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1969,10 +2020,10 @@
       <c r="D6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="11" t="b">
+      <c r="I6" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -1985,7 +2036,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1998,7 +2049,7 @@
       <c r="H7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="11" t="b">
+      <c r="I7" s="10" t="b">
         <v>1</v>
       </c>
       <c r="O7" s="7" t="s">
@@ -2008,7 +2059,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2019,7 +2070,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D9" s="7" t="s">
         <v>55</v>
       </c>
@@ -2030,7 +2081,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D10" s="7" t="s">
         <v>56</v>
       </c>
@@ -2041,7 +2092,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D11" s="7" t="s">
         <v>57</v>
       </c>
@@ -2052,7 +2103,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D12" s="7" t="s">
         <v>58</v>
       </c>
@@ -2063,7 +2114,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D13" s="7" t="s">
         <v>59</v>
       </c>
@@ -2074,7 +2125,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D14" s="7" t="s">
         <v>60</v>
       </c>
@@ -2085,7 +2136,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D15" s="7" t="s">
         <v>61</v>
       </c>
@@ -2096,7 +2147,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D16" s="7" t="s">
         <v>62</v>
       </c>
@@ -2107,7 +2158,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D17" s="7" t="s">
         <v>63</v>
       </c>
@@ -2118,7 +2169,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O18" s="7" t="s">
         <v>141</v>
       </c>
@@ -2126,7 +2177,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O19" s="7" t="s">
         <v>142</v>
       </c>
@@ -2134,7 +2185,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O20" s="7" t="s">
         <v>143</v>
       </c>
@@ -2142,7 +2193,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O21" s="7" t="s">
         <v>144</v>
       </c>
@@ -2150,7 +2201,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O22" s="7" t="s">
         <v>145</v>
       </c>
@@ -2158,7 +2209,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O23" s="7" t="s">
         <v>146</v>
       </c>
@@ -2166,7 +2217,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O24" s="7" t="s">
         <v>147</v>
       </c>
@@ -2174,7 +2225,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O25" s="7" t="s">
         <v>148</v>
       </c>
@@ -2182,7 +2233,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O26" s="7" t="s">
         <v>149</v>
       </c>
@@ -2190,7 +2241,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O27" s="7" t="s">
         <v>150</v>
       </c>
@@ -2198,7 +2249,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O28" s="7" t="s">
         <v>151</v>
       </c>
@@ -2206,227 +2257,227 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O29" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O30" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O31" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O32" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O33" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O34" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O35" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O36" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O37" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O38" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O39" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O40" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O41" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O42" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O43" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O44" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O45" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O46" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O47" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O48" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O49" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O50" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O51" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O52" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O53" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O54" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O55" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O56" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O57" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O58" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O59" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O60" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O61" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O62" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O63" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O64" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O65" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O66" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O67" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O68" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O69" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O70" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="71" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O71" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="72" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O72" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O73" s="7" t="s">
         <v>196</v>
       </c>
@@ -2443,56 +2494,61 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:AL80"/>
+  <dimension ref="A1:AQ80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2:AF34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="9" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="5.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.75" style="3" customWidth="1"/>
-    <col min="19" max="19" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="9.125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="9.125" style="3"/>
-    <col min="26" max="26" width="33.625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="29.75" style="3" customWidth="1"/>
-    <col min="28" max="28" width="12.25" style="3" customWidth="1"/>
-    <col min="29" max="29" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16" style="3" customWidth="1"/>
-    <col min="33" max="33" width="19.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.5" style="3" customWidth="1"/>
-    <col min="35" max="35" width="12.125" style="3" customWidth="1"/>
-    <col min="36" max="36" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.125" style="3"/>
+    <col min="1" max="1" width="17" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="5.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="22.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.33203125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" style="3" customWidth="1"/>
+    <col min="30" max="30" width="9.109375" style="3"/>
+    <col min="31" max="31" width="33.6640625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="29.77734375" style="3" customWidth="1"/>
+    <col min="33" max="33" width="12.21875" style="3" customWidth="1"/>
+    <col min="34" max="34" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16" style="3" customWidth="1"/>
+    <col min="38" max="38" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.44140625" style="3" customWidth="1"/>
+    <col min="40" max="40" width="12.109375" style="3" customWidth="1"/>
+    <col min="41" max="41" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:43" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2507,13 +2563,13 @@
       <c r="E1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -2543,108 +2599,126 @@
       <c r="Q1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="AD1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AG1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="4" cm="1">
         <f t="array" aca="1" ref="A2" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="14" t="str">
-        <f>"IND_AL"</f>
-        <v>IND_AL</v>
-      </c>
-      <c r="D2" s="6"/>
+      <c r="B2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="7" t="str" cm="1">
         <f t="array" ref="F2">_xlfn.IFS(AND(G2,H2),"prosumer",G2,"consumer",H2,"producer")</f>
         <v>consumer</v>
       </c>
       <c r="G2" s="7" t="b">
-        <f t="shared" ref="G2:G3" si="0">IF(M2&lt;&gt;"",TRUE,FALSE)</f>
+        <f>IF(M2&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H2" s="7" t="b">
-        <f t="shared" ref="H2:H34" si="1">IF(SUM(O2:S2)&gt;0,TRUE,FALSE)</f>
+        <f>IF(SUM(O2:T2)&gt;0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>83</v>
+      <c r="M2" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="N2" s="7" t="b">
         <v>0</v>
@@ -2653,277 +2727,322 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="4">
-        <f t="shared" ref="X2:X33" si="2">IF(AND(H2=FALSE,G2=FALSE),1,0) + IF(AND(NOT(B2),D2&gt;0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA2" s="6" t="s">
+      <c r="S2" s="20"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="7" t="b">
+        <f>IF(AND(X2&lt;&gt;"",Y2&lt;&gt;""), TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AC2" s="18">
+        <f>IF(AND(H2=FALSE,G2=FALSE),1,0) + IF(AND(NOT(B2),D2&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="6" t="str">
+        <f>C2</f>
+        <v>household_small_1</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB2" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA2,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AG2" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF2,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="4" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="str">
-        <f>"ICT_"&amp;TEXT(O3,0)&amp;"kW"</f>
-        <v>ICT_999kW</v>
+      <c r="B3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="str" cm="1">
         <f t="array" ref="F3">_xlfn.IFS(AND(G3,H3),"prosumer",G3,"consumer",H3,"producer")</f>
-        <v>producer</v>
+        <v>consumer</v>
       </c>
       <c r="G3" s="7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="G3:G6" si="0">IF(M3&lt;&gt;"",TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="H3" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="H3:H6" si="1">IF(SUM(O3:T3)&gt;0,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="N3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O3" s="6">
-        <v>999</v>
-      </c>
-      <c r="P3" s="6">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>180</v>
-      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>33</v>
+      <c r="S3" s="20"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="W3" s="6"/>
-      <c r="X3" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="6" t="str">
-        <f>"impianto immissione totale "&amp;O3&amp;"kW"</f>
-        <v>impianto immissione totale 999kW</v>
-      </c>
-      <c r="AA3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="7" t="b">
+        <f t="shared" ref="AB3:AB34" si="2">IF(AND(X3&lt;&gt;"",Y3&lt;&gt;""), TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="18">
+        <f t="shared" ref="AC3:AC6" si="3">IF(AND(H3=FALSE,G3=FALSE),1,0) + IF(AND(NOT(B3),D3&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="6" t="str">
+        <f t="shared" ref="AE3:AE6" si="4">C3</f>
+        <v>household_small_2</v>
+      </c>
+      <c r="AF3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA3,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AG3" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF3,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AP3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AQ3" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="4" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="str">
-        <f>"ICT_"&amp;TEXT(O4,0)&amp;"kW"</f>
-        <v>ICT_30kW</v>
+      <c r="B4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="str" cm="1">
         <f t="array" ref="F4">_xlfn.IFS(AND(G4,H4),"prosumer",G4,"consumer",H4,"producer")</f>
-        <v>producer</v>
+        <v>consumer</v>
       </c>
       <c r="G4" s="7" t="b">
-        <f t="shared" ref="G4:G5" si="3">IF(M4&lt;&gt;"",TRUE,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H4" s="7" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="N4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O4" s="6">
-        <v>30</v>
-      </c>
-      <c r="P4" s="6">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>180</v>
-      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>33</v>
+      <c r="S4" s="20"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="4">
+        <v>25</v>
+      </c>
+      <c r="W4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="6" t="str">
-        <f>"impianto immissione totale "&amp;O4&amp;"kW"</f>
-        <v>impianto immissione totale 30kW</v>
-      </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AC4" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>household_small_3</v>
+      </c>
+      <c r="AF4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA4,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AG4" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF4,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK4" s="6" t="s">
+      <c r="AP4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL4" s="6" t="s">
+      <c r="AQ4" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="4" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="C5" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2932,7 +3051,7 @@
         <v>consumer</v>
       </c>
       <c r="G5" s="7" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H5" s="7" t="b">
@@ -2951,7 +3070,7 @@
       <c r="L5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N5" s="7" t="b">
@@ -2961,84 +3080,98 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" s="6" t="s">
+      <c r="S5" s="20"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="4">
+      <c r="W5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="6" t="str">
-        <f t="shared" ref="Z5" si="4">C5</f>
-        <v>test_generic_tariff</v>
-      </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AC5" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>household_small_4</v>
+      </c>
+      <c r="AF5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB5" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA5,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AG5" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF5,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK5" s="6" t="s">
+      <c r="AP5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL5" s="6" t="s">
+      <c r="AQ5" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="4" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="C6" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="str" cm="1">
         <f t="array" ref="F6">_xlfn.IFS(AND(G6,H6),"prosumer",G6,"consumer",H6,"producer")</f>
-        <v>prosumer</v>
+        <v>consumer</v>
       </c>
       <c r="G6" s="7" t="b">
-        <f t="shared" ref="G6" si="5">IF(M6&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H6" s="7" t="b">
-        <f t="shared" ref="H6" si="6">IF(SUM(O6:S6)&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>9</v>
@@ -3052,88 +3185,94 @@
       <c r="L6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O6" s="6">
-        <v>6</v>
-      </c>
-      <c r="P6" s="6">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>180</v>
-      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U6" s="6" t="s">
+      <c r="S6" s="20"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="W6" s="6"/>
-      <c r="X6" s="4">
-        <f t="shared" ref="X6" si="7">IF(AND(H6=FALSE,G6=FALSE),1,0) + IF(AND(NOT(B6),D6&gt;0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="6" t="str">
-        <f t="shared" ref="Z6" si="8">C6</f>
-        <v>test_generic_tariff_PV</v>
-      </c>
-      <c r="AA6" s="6" t="s">
+      <c r="W6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>household_small_5</v>
+      </c>
+      <c r="AF6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB6" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA6,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AG6" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF6,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK6" s="6" t="s">
+      <c r="AP6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL6" s="6" t="s">
+      <c r="AQ6" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="4" cm="1">
         <f t="array" aca="1" ref="A7" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="C7" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -3142,11 +3281,11 @@
         <v>consumer</v>
       </c>
       <c r="G7" s="7" t="b">
-        <f t="shared" ref="G7:G8" si="9">IF(M7&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" ref="G7:G8" si="5">IF(M7&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H7" s="7" t="b">
-        <f t="shared" ref="H7:H8" si="10">IF(SUM(O7:S7)&gt;0,TRUE,FALSE)</f>
+        <f t="shared" ref="H7:H8" si="6">IF(SUM(O7:T7)&gt;0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -3156,12 +3295,12 @@
         <v>3</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N7" s="7" t="b">
@@ -3171,87 +3310,97 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U7" s="6" t="s">
+      <c r="S7" s="20"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="4">
-        <f t="shared" ref="X7:X8" si="11">IF(AND(H7=FALSE,G7=FALSE),1,0) + IF(AND(NOT(B7),D7&gt;0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="6" t="str">
-        <f t="shared" ref="Z7:Z8" si="12">C7</f>
-        <v>test_tariff_ciappartiene_CER</v>
-      </c>
-      <c r="AA7" s="6" t="s">
+      <c r="W7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="18">
+        <f t="shared" ref="AC7:AC8" si="7">IF(AND(H7=FALSE,G7=FALSE),1,0) + IF(AND(NOT(B7),D7&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="6" t="str">
+        <f t="shared" ref="AE7:AE8" si="8">C7</f>
+        <v>household_small_6</v>
+      </c>
+      <c r="AF7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB7" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA7,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="6" t="s">
+      <c r="AG7" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF7,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK7" s="6" t="s">
+      <c r="AP7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL7" s="6" t="s">
+      <c r="AQ7" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="4" cm="1">
         <f t="array" aca="1" ref="A8" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>7</v>
       </c>
       <c r="B8" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7" t="str" cm="1">
         <f t="array" ref="F8">_xlfn.IFS(AND(G8,H8),"prosumer",G8,"consumer",H8,"producer")</f>
         <v>consumer</v>
       </c>
       <c r="G8" s="7" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H8" s="7" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -3266,7 +3415,7 @@
       <c r="L8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N8" s="7" t="b">
@@ -3276,87 +3425,97 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U8" s="6" t="s">
+      <c r="S8" s="20"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>household_small_1</v>
-      </c>
-      <c r="AA8" s="6" t="s">
+      <c r="W8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>household_small_7</v>
+      </c>
+      <c r="AF8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB8" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA8,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="6" t="s">
+      <c r="AG8" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF8,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK8" s="6" t="s">
+      <c r="AP8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL8" s="6" t="s">
+      <c r="AQ8" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="4" cm="1">
         <f t="array" aca="1" ref="A9" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>8</v>
       </c>
       <c r="B9" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="str" cm="1">
         <f t="array" ref="F9">_xlfn.IFS(AND(G9,H9),"prosumer",G9,"consumer",H9,"producer")</f>
         <v>consumer</v>
       </c>
       <c r="G9" s="7" t="b">
-        <f t="shared" ref="G9:G12" si="13">IF(M9&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" ref="G9" si="9">IF(M9&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H9" s="7" t="b">
-        <f t="shared" ref="H9:H12" si="14">IF(SUM(O9:S9)&gt;0,TRUE,FALSE)</f>
+        <f t="shared" ref="H9" si="10">IF(SUM(O9:T9)&gt;0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -3371,7 +3530,7 @@
       <c r="L9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="7" t="b">
@@ -3381,63 +3540,75 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U9" s="6" t="s">
+      <c r="S9" s="20"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="4">
-        <f t="shared" ref="X9:X12" si="15">IF(AND(H9=FALSE,G9=FALSE),1,0) + IF(AND(NOT(B9),D9&gt;0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="6" t="str">
-        <f t="shared" ref="Z9:Z12" si="16">C9</f>
-        <v>household_small_2</v>
-      </c>
-      <c r="AA9" s="6" t="s">
+      <c r="W9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="18">
+        <f t="shared" ref="AC9" si="11">IF(AND(H9=FALSE,G9=FALSE),1,0) + IF(AND(NOT(B9),D9&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="6" t="str">
+        <f t="shared" ref="AE9" si="12">C9</f>
+        <v>household_small_8</v>
+      </c>
+      <c r="AF9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB9" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA9,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="6" t="s">
+      <c r="AG9" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF9,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK9" s="6" t="s">
+      <c r="AP9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL9" s="6" t="s">
+      <c r="AQ9" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="4" cm="1">
         <f t="array" aca="1" ref="A10" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>9</v>
@@ -3446,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -3454,119 +3625,145 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7" t="str" cm="1">
         <f t="array" ref="F10">_xlfn.IFS(AND(G10,H10),"prosumer",G10,"consumer",H10,"producer")</f>
-        <v>consumer</v>
+        <v>prosumer</v>
       </c>
       <c r="G10" s="7" t="b">
-        <f t="shared" si="13"/>
+        <f>IF(M10&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H10" s="7" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" ref="H10:H28" si="13">IF(SUM(O10:T10)&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N10" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U10" s="6" t="s">
+      <c r="O10" s="6">
+        <v>3</v>
+      </c>
+      <c r="P10" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>180</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" s="20"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v>household_small_3</v>
-      </c>
-      <c r="AA10" s="6" t="s">
+      <c r="W10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>26</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>19</v>
+      </c>
+      <c r="AB10" s="7" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC10" s="18">
+        <f t="shared" ref="AC10:AC16" si="14">IF(AND(H10=FALSE,G10=FALSE),1,0) + IF(AND(NOT(B10),D10&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="6" t="str">
+        <f t="shared" ref="AE10:AE14" si="15">C10</f>
+        <v>household_small_prosumer</v>
+      </c>
+      <c r="AF10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB10" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA10,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="6" t="s">
+      <c r="AG10" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF10,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK10" s="6" t="s">
+      <c r="AP10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL10" s="6" t="s">
+      <c r="AQ10" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="4" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>10</v>
       </c>
       <c r="B11" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="str" cm="1">
         <f t="array" ref="F11">_xlfn.IFS(AND(G11,H11),"prosumer",G11,"consumer",H11,"producer")</f>
         <v>consumer</v>
       </c>
       <c r="G11" s="7" t="b">
+        <f>IF(M11&lt;&gt;"",TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="b">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="7" t="b">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -3576,12 +3773,12 @@
         <v>3</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N11" s="7" t="b">
@@ -3591,88 +3788,98 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U11" s="6" t="s">
+      <c r="S11" s="20"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="4">
+      <c r="W11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v>household_small_4</v>
-      </c>
-      <c r="AA11" s="6" t="s">
+        <v>household_medium</v>
+      </c>
+      <c r="AF11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB11" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA11,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="6" t="s">
+      <c r="AG11" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF11,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK11" s="6" t="s">
+      <c r="AP11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL11" s="6" t="s">
+      <c r="AQ11" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="4" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>11</v>
       </c>
       <c r="B12" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7" t="str" cm="1">
         <f t="array" ref="F12">_xlfn.IFS(AND(G12,H12),"prosumer",G12,"consumer",H12,"producer")</f>
-        <v>consumer</v>
+        <v>prosumer</v>
       </c>
       <c r="G12" s="7" t="b">
+        <f t="shared" ref="G12" si="16">IF(M12&lt;&gt;"",TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
-      </c>
-      <c r="H12" s="7" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>9</v>
@@ -3681,109 +3888,129 @@
         <v>3</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N12" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U12" s="6" t="s">
+      <c r="O12" s="6">
+        <v>6</v>
+      </c>
+      <c r="P12" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>180</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S12" s="20"/>
+      <c r="T12" s="6">
+        <v>10</v>
+      </c>
+      <c r="U12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="4">
+      <c r="W12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="6" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v>household_small_5</v>
-      </c>
-      <c r="AA12" s="6" t="s">
+        <v>household_medium_prosumer</v>
+      </c>
+      <c r="AF12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB12" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA12,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="6" t="s">
+      <c r="AG12" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF12,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK12" s="6" t="s">
+      <c r="AP12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL12" s="6" t="s">
+      <c r="AQ12" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="4" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>12</v>
       </c>
       <c r="B13" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7" t="str" cm="1">
         <f t="array" ref="F13">_xlfn.IFS(AND(G13,H13),"prosumer",G13,"consumer",H13,"producer")</f>
         <v>consumer</v>
       </c>
       <c r="G13" s="7" t="b">
-        <f t="shared" ref="G13:G14" si="17">IF(M13&lt;&gt;"",TRUE,FALSE)</f>
+        <f>IF(M13&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H13" s="7" t="b">
-        <f t="shared" ref="H13:H14" si="18">IF(SUM(O13:S13)&gt;0,TRUE,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>89</v>
@@ -3791,7 +4018,7 @@
       <c r="L13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N13" s="7" t="b">
@@ -3801,94 +4028,104 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U13" s="6" t="s">
+      <c r="S13" s="20"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="4">
-        <f t="shared" ref="X13:X14" si="19">IF(AND(H13=FALSE,G13=FALSE),1,0) + IF(AND(NOT(B13),D13&gt;0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="6" t="str">
-        <f t="shared" ref="Z13:Z14" si="20">C13</f>
-        <v>household_small_6</v>
-      </c>
-      <c r="AA13" s="6" t="s">
+      <c r="W13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>household_big</v>
+      </c>
+      <c r="AF13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB13" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA13,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="6" t="s">
+      <c r="AG13" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF13,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK13" s="6" t="s">
+      <c r="AP13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL13" s="6" t="s">
+      <c r="AQ13" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="4" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>13</v>
       </c>
       <c r="B14" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7" t="str" cm="1">
         <f t="array" ref="F14">_xlfn.IFS(AND(G14,H14),"prosumer",G14,"consumer",H14,"producer")</f>
-        <v>consumer</v>
+        <v>prosumer</v>
       </c>
       <c r="G14" s="7" t="b">
-        <f t="shared" si="17"/>
+        <f>IF(M14&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H14" s="7" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>89</v>
@@ -3896,104 +4133,122 @@
       <c r="L14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N14" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U14" s="6" t="s">
+      <c r="O14" s="6">
+        <v>10</v>
+      </c>
+      <c r="P14" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>180</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S14" s="20"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>household_small_7</v>
-      </c>
-      <c r="AA14" s="6" t="s">
+      <c r="W14" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>household_big_prosumer</v>
+      </c>
+      <c r="AF14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB14" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA14,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="6" t="s">
+      <c r="AG14" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF14,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK14" s="6" t="s">
+      <c r="AP14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL14" s="6" t="s">
+      <c r="AQ14" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="4" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>14</v>
       </c>
       <c r="B15" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7" t="str" cm="1">
         <f t="array" ref="F15">_xlfn.IFS(AND(G15,H15),"prosumer",G15,"consumer",H15,"producer")</f>
-        <v>consumer</v>
+        <v>prosumer</v>
       </c>
       <c r="G15" s="7" t="b">
-        <f t="shared" ref="G15" si="21">IF(M15&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" ref="G15:G16" si="17">IF(M15&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H15" s="7" t="b">
-        <f t="shared" ref="H15" si="22">IF(SUM(O15:S15)&gt;0,TRUE,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>89</v>
@@ -4001,119 +4256,138 @@
       <c r="L15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="15" t="s">
-        <v>27</v>
+      <c r="M15" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="N15" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U15" s="6" t="s">
+      <c r="O15" s="6">
+        <v>10</v>
+      </c>
+      <c r="P15" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>180</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S15" s="20"/>
+      <c r="T15" s="6">
+        <v>3</v>
+      </c>
+      <c r="U15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="4">
-        <f t="shared" ref="X15" si="23">IF(AND(H15=FALSE,G15=FALSE),1,0) + IF(AND(NOT(B15),D15&gt;0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="6" t="str">
-        <f t="shared" ref="Z15" si="24">C15</f>
-        <v>household_small_8</v>
-      </c>
-      <c r="AA15" s="6" t="s">
+      <c r="W15" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB15" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA15,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="6" t="s">
+      <c r="AG15" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF15,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK15" s="6" t="s">
+      <c r="AP15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL15" s="6" t="s">
+      <c r="AQ15" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="4" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>15</v>
       </c>
       <c r="B16" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="str" cm="1">
         <f t="array" ref="F16">_xlfn.IFS(AND(G16,H16),"prosumer",G16,"consumer",H16,"producer")</f>
         <v>prosumer</v>
       </c>
       <c r="G16" s="7" t="b">
-        <f t="shared" ref="G16:G21" si="25">IF(M16&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H16" s="7" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="15" t="s">
-        <v>27</v>
+      <c r="M16" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="N16" s="7" t="b">
         <v>0</v>
       </c>
       <c r="O16" s="6">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P16" s="6">
         <v>40</v>
@@ -4121,289 +4395,324 @@
       <c r="Q16" s="6">
         <v>180</v>
       </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U16" s="6" t="s">
+      <c r="R16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S16" s="20"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="4">
+      <c r="W16" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="6" t="str">
-        <f t="shared" ref="Z16:Z20" si="26">C16</f>
-        <v>household_small_prosumer</v>
-      </c>
-      <c r="AA16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB16" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA16,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH16" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="6" t="s">
+      <c r="AC16" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG16" s="19" t="b">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF16,Description!$H$2:$H$7,0)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="AH16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK16" s="6" t="s">
+      <c r="AP16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL16" s="6" t="s">
+      <c r="AQ16" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" s="4" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>16</v>
       </c>
       <c r="B17" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7" t="str" cm="1">
         <f t="array" ref="F17">_xlfn.IFS(AND(G17,H17),"prosumer",G17,"consumer",H17,"producer")</f>
-        <v>consumer</v>
+        <v>prosumer</v>
       </c>
       <c r="G17" s="7" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="G17" si="18">IF(M17&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H17" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="15" t="s">
-        <v>27</v>
+      <c r="M17" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="N17" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="4">
+      <c r="O17" s="6">
+        <v>40</v>
+      </c>
+      <c r="P17" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>180</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S17" s="20"/>
+      <c r="T17" s="6">
+        <v>12</v>
+      </c>
+      <c r="U17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v>household_medium</v>
-      </c>
-      <c r="AA17" s="6" t="s">
+      <c r="AC17" s="18">
+        <f t="shared" ref="AC17" si="19">IF(AND(H17=FALSE,G17=FALSE),1,0) + IF(AND(NOT(B17),D17&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB17" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA17,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="6" t="s">
+      <c r="AG17" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF17,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK17" s="6" t="s">
+      <c r="AP17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL17" s="6" t="s">
+      <c r="AQ17" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" s="4" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="C18" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7" t="str" cm="1">
         <f t="array" ref="F18">_xlfn.IFS(AND(G18,H18),"prosumer",G18,"consumer",H18,"producer")</f>
-        <v>prosumer</v>
+        <v>consumer</v>
       </c>
       <c r="G18" s="7" t="b">
-        <f t="shared" ref="G18" si="27">IF(M18&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" ref="G18" si="20">IF(M18&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H18" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N18" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O18" s="6">
-        <v>6</v>
-      </c>
-      <c r="P18" s="6">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>180</v>
-      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="6">
+      <c r="S18" s="20"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W18" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="18">
+        <f t="shared" ref="AC18:AC29" si="21">IF(AND(H18=FALSE,G18=FALSE),1,0) + IF(AND(NOT(B18),D18&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v>household_medium_prosumer</v>
-      </c>
-      <c r="AA18" s="6" t="s">
+      <c r="AF18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB18" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA18,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="6" t="s">
+      <c r="AG18" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF18,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK18" s="6" t="s">
+      <c r="AP18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL18" s="6" t="s">
+      <c r="AQ18" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" s="4" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="C19" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -4412,18 +4721,18 @@
         <v>consumer</v>
       </c>
       <c r="G19" s="7" t="b">
-        <f>IF(M19&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" ref="G19" si="22">IF(M19&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H19" s="7" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>89</v>
@@ -4431,7 +4740,7 @@
       <c r="L19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N19" s="7" t="b">
@@ -4441,70 +4750,83 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U19" s="6" t="s">
+      <c r="S19" s="20"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="4">
+      <c r="W19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v>household_big</v>
-      </c>
-      <c r="AA19" s="6" t="s">
+      <c r="AC19" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB19" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA19,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="6" t="s">
+      <c r="AG19" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF19,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK19" s="6" t="s">
+      <c r="AP19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL19" s="6" t="s">
+      <c r="AQ19" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" s="4" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="C20" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -4513,15 +4835,15 @@
         <v>prosumer</v>
       </c>
       <c r="G20" s="7" t="b">
-        <f t="shared" si="25"/>
+        <f>IF(M20&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H20" s="7" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>4</v>
@@ -4532,8 +4854,8 @@
       <c r="L20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="15" t="s">
-        <v>27</v>
+      <c r="M20" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="N20" s="7" t="b">
         <v>0</v>
@@ -4547,102 +4869,119 @@
       <c r="Q20" s="6">
         <v>180</v>
       </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U20" s="6" t="s">
+      <c r="R20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S20" s="20"/>
+      <c r="T20" s="6">
+        <v>20</v>
+      </c>
+      <c r="U20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="W20" s="6"/>
-      <c r="X20" s="4">
+      <c r="W20" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v>household_big_prosumer</v>
-      </c>
-      <c r="AA20" s="6" t="s">
+      <c r="AC20" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB20" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA20,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH20" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK20" s="6" t="s">
+      <c r="AG20" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF20,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="6">
+        <v>18</v>
+      </c>
+      <c r="AP20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL20" s="6" t="s">
+      <c r="AQ20" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" s="4" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>20</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="C21" s="6" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F21" s="7" t="str" cm="1">
         <f t="array" ref="F21">_xlfn.IFS(AND(G21,H21),"prosumer",G21,"consumer",H21,"producer")</f>
         <v>consumer</v>
       </c>
       <c r="G21" s="7" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="G21:G25" si="23">IF(M21&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H21" s="7" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="15" t="s">
-        <v>27</v>
+      <c r="M21" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="N21" s="7" t="b">
         <v>0</v>
@@ -4651,98 +4990,114 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U21" s="6" t="s">
+      <c r="S21" s="20"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="4">
+      <c r="W21" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA21" s="6" t="s">
+      <c r="AC21" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB21" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA21,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI21" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="6" t="s">
+      <c r="AG21" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF21,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK21" s="6" t="s">
+      <c r="AP21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL21" s="6" t="s">
+      <c r="AQ21" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" s="4" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>21</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="C22" s="6" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F22" s="7" t="str" cm="1">
         <f t="array" ref="F22">_xlfn.IFS(AND(G22,H22),"prosumer",G22,"consumer",H22,"producer")</f>
         <v>consumer</v>
       </c>
       <c r="G22" s="7" t="b">
-        <f t="shared" ref="G22" si="28">IF(M22&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H22" s="7" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="15" t="s">
-        <v>27</v>
+      <c r="M22" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="N22" s="7" t="b">
         <v>0</v>
@@ -4751,185 +5106,201 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U22" s="6" t="s">
+      <c r="S22" s="20"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="4">
+      <c r="W22" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA22" s="6" t="s">
+      <c r="AC22" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB22" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA22,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="6" t="s">
+      <c r="AG22" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF22,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK22" s="6" t="s">
+      <c r="AP22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL22" s="6" t="s">
+      <c r="AQ22" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" s="4" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>22</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="C23" s="6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F23" s="7" t="str" cm="1">
         <f t="array" ref="F23">_xlfn.IFS(AND(G23,H23),"prosumer",G23,"consumer",H23,"producer")</f>
-        <v>prosumer</v>
+        <v>consumer</v>
       </c>
       <c r="G23" s="7" t="b">
-        <f>IF(M23&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H23" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="15" t="s">
-        <v>39</v>
+      <c r="M23" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="N23" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O23" s="6">
-        <v>10</v>
-      </c>
-      <c r="P23" s="6">
-        <v>40</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>180</v>
-      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="6">
-        <v>20</v>
-      </c>
-      <c r="T23" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U23" s="6" t="s">
+      <c r="S23" s="20"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V23" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="W23" s="6"/>
-      <c r="X23" s="4">
+      <c r="W23" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AC23" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB23" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA23,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="6">
-        <v>18</v>
-      </c>
-      <c r="AK23" s="6" t="s">
+      <c r="AG23" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF23,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL23" s="6" t="s">
+      <c r="AQ23" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" s="4" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>23</v>
       </c>
       <c r="B24" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
         <v>102</v>
       </c>
@@ -4938,11 +5309,11 @@
         <v>consumer</v>
       </c>
       <c r="G24" s="7" t="b">
-        <f t="shared" ref="G24:G28" si="29">IF(M24&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H24" s="7" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I24" s="6" t="s">
@@ -4957,8 +5328,8 @@
       <c r="L24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="15" t="s">
-        <v>91</v>
+      <c r="M24" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="N24" s="7" t="b">
         <v>0</v>
@@ -4967,89 +5338,99 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U24" s="6" t="s">
+      <c r="S24" s="20"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="4">
+      <c r="W24" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA24" s="6" t="s">
+      <c r="AC24" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF24" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB24" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA24,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="6" t="s">
+      <c r="AG24" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF24,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK24" s="6" t="s">
+      <c r="AP24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL24" s="6" t="s">
+      <c r="AQ24" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" s="4" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>24</v>
       </c>
       <c r="B25" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
         <v>102</v>
       </c>
       <c r="F25" s="7" t="str" cm="1">
         <f t="array" ref="F25">_xlfn.IFS(AND(G25,H25),"prosumer",G25,"consumer",H25,"producer")</f>
-        <v>consumer</v>
+        <v>prosumer</v>
       </c>
       <c r="G25" s="7" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H25" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>11</v>
@@ -5063,548 +5444,610 @@
       <c r="L25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="15" t="s">
-        <v>92</v>
+      <c r="M25" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="N25" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U25" s="6" t="s">
+      <c r="O25" s="6">
+        <v>20</v>
+      </c>
+      <c r="P25" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>180</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S25" s="20"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="4">
+      <c r="W25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA25" s="6" t="s">
+      <c r="AC25" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB25" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA25,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
+      <c r="AG25" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF25,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK25" s="6" t="s">
+      <c r="AP25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL25" s="6" t="s">
+      <c r="AQ25" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" s="4" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>25</v>
       </c>
       <c r="B26" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
         <v>102</v>
       </c>
       <c r="F26" s="7" t="str" cm="1">
         <f t="array" ref="F26">_xlfn.IFS(AND(G26,H26),"prosumer",G26,"consumer",H26,"producer")</f>
-        <v>consumer</v>
+        <v>prosumer</v>
       </c>
       <c r="G26" s="7" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="G26" si="24">IF(M26&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H26" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="15" t="s">
-        <v>93</v>
+      <c r="M26" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="N26" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U26" s="6" t="s">
+      <c r="O26" s="6">
+        <v>30</v>
+      </c>
+      <c r="P26" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>180</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S26" s="20"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="4">
+      <c r="W26" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA26" s="6" t="s">
+      <c r="AC26" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB26" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA26,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ26" s="6" t="s">
+      <c r="AG26" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF26,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK26" s="6" t="s">
+      <c r="AP26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL26" s="6" t="s">
+      <c r="AQ26" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" s="4" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>26</v>
       </c>
       <c r="B27" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
         <v>102</v>
       </c>
       <c r="F27" s="7" t="str" cm="1">
         <f t="array" ref="F27">_xlfn.IFS(AND(G27,H27),"prosumer",G27,"consumer",H27,"producer")</f>
-        <v>consumer</v>
+        <v>prosumer</v>
       </c>
       <c r="G27" s="7" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="G27" si="25">IF(M27&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H27" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M27" s="15" t="s">
-        <v>94</v>
+      <c r="M27" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="N27" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U27" s="6" t="s">
+      <c r="O27" s="6">
+        <v>20</v>
+      </c>
+      <c r="P27" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>180</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" s="20"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="4">
+      <c r="W27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA27" s="6" t="s">
+      <c r="AC27" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB27" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA27,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="6" t="s">
+      <c r="AG27" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF27,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK27" s="6" t="s">
+      <c r="AP27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL27" s="6" t="s">
+      <c r="AQ27" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" s="4" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>27</v>
       </c>
       <c r="B28" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
         <v>102</v>
       </c>
       <c r="F28" s="7" t="str" cm="1">
         <f t="array" ref="F28">_xlfn.IFS(AND(G28,H28),"prosumer",G28,"consumer",H28,"producer")</f>
-        <v>prosumer</v>
+        <v>consumer</v>
       </c>
       <c r="G28" s="7" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="G28" si="26">IF(M28&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H28" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M28" s="15" t="s">
+      <c r="M28" s="12" t="s">
         <v>220</v>
       </c>
       <c r="N28" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O28" s="6">
-        <v>20</v>
-      </c>
-      <c r="P28" s="6">
-        <v>40</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>180</v>
-      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U28" s="6" t="s">
+      <c r="S28" s="20"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="W28" s="6"/>
-      <c r="X28" s="4">
+      <c r="W28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA28" s="6" t="s">
+      <c r="AC28" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB28" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA28,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH28" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="6" t="s">
+      <c r="AG28" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF28,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK28" s="6" t="s">
+      <c r="AP28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL28" s="6" t="s">
+      <c r="AQ28" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29" s="4" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>28</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6" t="s">
-        <v>114</v>
+      <c r="B29" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6" t="str">
+        <f>"IND_AL"</f>
+        <v>IND_AL</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="7" t="str" cm="1">
         <f t="array" ref="F29">_xlfn.IFS(AND(G29,H29),"prosumer",G29,"consumer",H29,"producer")</f>
-        <v>prosumer</v>
+        <v>consumer</v>
       </c>
       <c r="G29" s="7" t="b">
-        <f t="shared" ref="G29" si="30">IF(M29&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" ref="G29:G30" si="27">IF(M29&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H29" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="H29:H31" si="28">IF(SUM(O29:T29)&gt;0,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M29" s="15" t="s">
-        <v>72</v>
+      <c r="M29" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="N29" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O29" s="6">
-        <v>30</v>
-      </c>
-      <c r="P29" s="6">
-        <v>40</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>180</v>
-      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U29" s="6" t="s">
-        <v>25</v>
+      <c r="S29" s="20"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="W29" s="6"/>
-      <c r="X29" s="4">
+        <v>33</v>
+      </c>
+      <c r="W29" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA29" s="6" t="s">
+      <c r="AC29" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB29" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA29,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="6" t="s">
+      <c r="AG29" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF29,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK29" s="6" t="s">
+      <c r="AP29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL29" s="6" t="s">
+      <c r="AQ29" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" s="4" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>29</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6" t="s">
-        <v>115</v>
+      <c r="B30" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f>"ICT_"&amp;TEXT(O30,0)&amp;"kW"</f>
+        <v>ICT_999kW</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="7" t="str" cm="1">
         <f t="array" ref="F30">_xlfn.IFS(AND(G30,H30),"prosumer",G30,"consumer",H30,"producer")</f>
-        <v>prosumer</v>
+        <v>producer</v>
       </c>
       <c r="G30" s="7" t="b">
-        <f t="shared" ref="G30" si="31">IF(M30&lt;&gt;"",TRUE,FALSE)</f>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="H30" s="7" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>73</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="12"/>
       <c r="N30" s="7" t="b">
         <v>0</v>
       </c>
       <c r="O30" s="6">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="P30" s="6">
         <v>40</v>
@@ -5612,194 +6055,225 @@
       <c r="Q30" s="6">
         <v>180</v>
       </c>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U30" s="6" t="s">
-        <v>25</v>
+      <c r="R30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S30" s="20"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="W30" s="6"/>
-      <c r="X30" s="4">
+        <v>33</v>
+      </c>
+      <c r="W30" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA30" s="6" t="s">
+      <c r="AC30" s="18">
+        <f t="shared" ref="AC30:AC31" si="29">IF(AND(H30=FALSE,G30=FALSE),1,0) + IF(AND(NOT(B30),D30&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="6" t="str">
+        <f>"impianto immissione totale "&amp;O30&amp;"kW"</f>
+        <v>impianto immissione totale 999kW</v>
+      </c>
+      <c r="AF30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB30" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA30,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH30" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI30" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="6" t="s">
+      <c r="AG30" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF30,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AL30" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK30" s="6" t="s">
+      <c r="AP30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL30" s="6" t="s">
+      <c r="AQ30" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" s="4" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>30</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="13" t="s">
-        <v>220</v>
+      <c r="B31" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6" t="str">
+        <f>"ICT_"&amp;TEXT(O31,0)&amp;"kW"</f>
+        <v>ICT_30kW</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
-        <v>102</v>
-      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="7" t="str" cm="1">
         <f t="array" ref="F31">_xlfn.IFS(AND(G31,H31),"prosumer",G31,"consumer",H31,"producer")</f>
-        <v>consumer</v>
+        <v>producer</v>
       </c>
       <c r="G31" s="7" t="b">
-        <f t="shared" ref="G31" si="32">IF(M31&lt;&gt;"",TRUE,FALSE)</f>
-        <v>1</v>
+        <f t="shared" ref="G31" si="30">IF(M31&lt;&gt;"",TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="H31" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>220</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="12"/>
       <c r="N31" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="4">
+      <c r="O31" s="6">
+        <v>30</v>
+      </c>
+      <c r="P31" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>180</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S31" s="20"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W31" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA31" s="6" t="s">
+      <c r="AC31" s="18">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="6" t="str">
+        <f>"impianto immissione totale "&amp;O31&amp;"kW"</f>
+        <v>impianto immissione totale 30kW</v>
+      </c>
+      <c r="AF31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB31" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA31,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="6" t="s">
+      <c r="AG31" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF31,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK31" s="6" t="s">
+      <c r="AP31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL31" s="6" t="s">
+      <c r="AQ31" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" s="4" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>31</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="13" t="s">
-        <v>111</v>
+      <c r="B32" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="7" t="str" cm="1">
         <f t="array" ref="F32">_xlfn.IFS(AND(G32,H32),"prosumer",G32,"consumer",H32,"producer")</f>
-        <v>prosumer</v>
+        <v>consumer</v>
       </c>
       <c r="G32" s="7" t="b">
-        <f t="shared" ref="G32:G33" si="33">IF(M32&lt;&gt;"",TRUE,FALSE)</f>
+        <f>IF(M32&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H32" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF(SUM(O32:T32)&gt;0,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>89</v>
@@ -5807,91 +6281,94 @@
       <c r="L32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M32" s="15" t="s">
-        <v>76</v>
+      <c r="M32" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="N32" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O32" s="6">
-        <v>10</v>
-      </c>
-      <c r="P32" s="6">
-        <v>40</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>180</v>
-      </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="6">
-        <v>3</v>
-      </c>
-      <c r="T32" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U32" s="6" t="s">
+      <c r="S32" s="20"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V32" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="W32" s="6"/>
-      <c r="X32" s="4">
+      <c r="W32" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA32" s="6" t="s">
+      <c r="AC32" s="18">
+        <f>IF(AND(H32=FALSE,G32=FALSE),1,0) + IF(AND(NOT(B32),D32&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="6" t="str">
+        <f t="shared" ref="AE32" si="31">C32</f>
+        <v>test_generic_tariff</v>
+      </c>
+      <c r="AF32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB32" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA32,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ32" s="6" t="s">
+      <c r="AG32" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF32,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK32" s="6" t="s">
+      <c r="AP32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL32" s="6" t="s">
+      <c r="AQ32" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33" s="4" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>32</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="13" t="s">
-        <v>112</v>
+      <c r="B33" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -5900,18 +6377,18 @@
         <v>prosumer</v>
       </c>
       <c r="G33" s="7" t="b">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="G33" si="32">IF(M33&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H33" s="7" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H33" si="33">IF(SUM(O33:T33)&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>89</v>
@@ -5919,14 +6396,14 @@
       <c r="L33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M33" s="15" t="s">
-        <v>78</v>
+      <c r="M33" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="N33" s="7" t="b">
         <v>0</v>
       </c>
       <c r="O33" s="6">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P33" s="6">
         <v>40</v>
@@ -5934,239 +6411,261 @@
       <c r="Q33" s="6">
         <v>180</v>
       </c>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U33" s="6" t="s">
+      <c r="R33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S33" s="20"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V33" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="W33" s="6"/>
-      <c r="X33" s="4">
+      <c r="W33" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA33" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB33" s="7" t="b">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA33,Description!$H$2:$H$7,0)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="AC33" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH33" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ33" s="6" t="s">
+      <c r="AC33" s="18">
+        <f t="shared" ref="AC33" si="34">IF(AND(H33=FALSE,G33=FALSE),1,0) + IF(AND(NOT(B33),D33&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="6" t="str">
+        <f t="shared" ref="AE33" si="35">C33</f>
+        <v>test_generic_tariff_PV</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG33" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF33,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK33" s="6" t="s">
+      <c r="AP33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL33" s="6" t="s">
+      <c r="AQ33" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A34" s="4" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">IFERROR(INDIRECT(ADDRESS(ROW()-1,COLUMN()))+1,1)</f>
         <v>33</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="13" t="s">
-        <v>113</v>
+      <c r="B34" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="str" cm="1">
         <f t="array" ref="F34">_xlfn.IFS(AND(G34,H34),"prosumer",G34,"consumer",H34,"producer")</f>
-        <v>prosumer</v>
+        <v>consumer</v>
       </c>
       <c r="G34" s="7" t="b">
-        <f t="shared" ref="G34" si="34">IF(M34&lt;&gt;"",TRUE,FALSE)</f>
+        <f t="shared" ref="G34" si="36">IF(M34&lt;&gt;"",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H34" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="H34" si="37">IF(SUM(O34:T34)&gt;0,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M34" s="15" t="s">
-        <v>79</v>
+      <c r="M34" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="N34" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="O34" s="6">
-        <v>40</v>
-      </c>
-      <c r="P34" s="6">
-        <v>40</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>180</v>
-      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
-      <c r="S34" s="6">
-        <v>12</v>
-      </c>
-      <c r="T34" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U34" s="6" t="s">
-        <v>33</v>
+      <c r="S34" s="20"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="W34" s="6"/>
-      <c r="X34" s="4">
-        <f t="shared" ref="X34" si="35">IF(AND(H34=FALSE,G34=FALSE),1,0) + IF(AND(NOT(B34),D34&gt;0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W34" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="18">
+        <f t="shared" ref="AC34" si="38">IF(AND(H34=FALSE,G34=FALSE),1,0) + IF(AND(NOT(B34),D34&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="6" t="str">
+        <f t="shared" ref="AE34" si="39">C34</f>
+        <v>test_tariff_ciappartiene_CER</v>
+      </c>
+      <c r="AF34" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AB34" s="7">
-        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AA34,Description!$H$2:$H$7,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ34" s="6" t="s">
+      <c r="AG34" s="19">
+        <f>IFERROR(INDEX(Description!$I$2:$I$7,MATCH(Utenti!AF34,Description!$H$2:$H$7,0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AK34" s="6" t="s">
+      <c r="AP34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL34" s="6" t="s">
+      <c r="AQ34" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:36" x14ac:dyDescent="0.3">
       <c r="D71" s="3">
         <v>1</v>
       </c>
-      <c r="AE71" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="AE79" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="AE80" s="3">
+      <c r="AJ71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:36" x14ac:dyDescent="0.3">
+      <c r="AJ79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:36" x14ac:dyDescent="0.3">
+      <c r="AJ80" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL28" xr:uid="{2C4C512D-720B-4883-9A57-F76C3249E6F9}"/>
+  <autoFilter ref="A1:AQ31" xr:uid="{2C4C512D-720B-4883-9A57-F76C3249E6F9}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B34 G2:H34 N2:N34 T2:T34 Y2:Y34 AB2:AC34">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="False">
+  <conditionalFormatting sqref="B2:B34 G2:H34 N2:N34 U2:U34 W2:W34 AD2:AD34 AG2:AH34">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="False">
       <formula>NOT(ISERROR(SEARCH("False",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="True">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F34">
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
       <formula>"prosumer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
       <formula>"consumer"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
       <formula>"producer"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB34">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="False">
+      <formula>NOT(ISERROR(SEARCH("False",AB2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="True">
+      <formula>NOT(ISERROR(SEARCH("True",AB2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T34" xr:uid="{85FFB186-91F6-47EB-A5CB-9D04D285D42D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U34 W2:W34 B2:B34 N2:N34 AD2:AD34 AH2:AH34" xr:uid="{85FFB186-91F6-47EB-A5CB-9D04D285D42D}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U34" xr:uid="{01172BCE-5A26-4719-918C-96329610A20E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V34" xr:uid="{01172BCE-5A26-4719-918C-96329610A20E}">
       <formula1>"BT,MT"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="plant installed capacity cannot exceed 1MW" sqref="O2:R34" xr:uid="{6F7FE448-E91D-4E77-B80B-A98263996A73}">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="plant installed capacity cannot exceed 1MW" sqref="O2:S34" xr:uid="{6F7FE448-E91D-4E77-B80B-A98263996A73}">
       <formula1>1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V34" xr:uid="{60410583-7289-4BAD-90FD-B471010061C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R34" xr:uid="{60410583-7289-4BAD-90FD-B471010061C3}">
       <formula1>"roof,ground"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Grants + Debt exceeding 100%" error="Grants + Debt exceeding 100%_x000a__x000a_grant_private_% + grant_pnrr_% + debt_% + equity_% must be equal to 100%_x000a__x000a_Reduce the grants or the debt" sqref="AD2:AF34" xr:uid="{48819E97-B399-45DA-AD03-6FC3A5AEB5E2}">
-      <formula1>$AD2 + $AE2 + $AF2&lt;=1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AI9" xr:uid="{4C7DCFBF-10FC-4820-86B5-29C9A8085B8F}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AN3 AL29:AN34" xr:uid="{4C7DCFBF-10FC-4820-86B5-29C9A8085B8F}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Month" error="The stanting month of the simulation is 1; Please insert a month greater or equal to 1" sqref="AG10:AI34" xr:uid="{794D702C-668E-4B19-9BAE-9E263BC402B2}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Month" error="The stanting month of the simulation is 1; Please insert a month greater or equal to 1" sqref="AL4:AN28 AL32:AN34" xr:uid="{794D702C-668E-4B19-9BAE-9E263BC402B2}">
       <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Grants + Debt exceeding 100%" error="Grants + Debt exceeding 100%_x000a__x000a_grant_private_% + grant_pnrr_% + debt_% + equity_% must be equal to 100%_x000a__x000a_Reduce the grants or the debt" sqref="AI2:AK34" xr:uid="{48819E97-B399-45DA-AD03-6FC3A5AEB5E2}">
+      <formula1>$AI2 + $AJ2 + $AK2&lt;=1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6174,13 +6673,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC008ED6-6355-45F5-9DBD-CCBD74C5A461}">
-          <x14:formula1>
-            <xm:f>Description!$D$2:$D$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>I29:I34</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{31ACDDA7-5EDD-4CEB-BAC3-263EEC96B33C}">
           <x14:formula1>
             <xm:f>Description!$D$2:$D$6</xm:f>
@@ -6209,7 +6702,7 @@
           <x14:formula1>
             <xm:f>Description!$H$2:$H$9</xm:f>
           </x14:formula1>
-          <xm:sqref>AA2:AA34</xm:sqref>
+          <xm:sqref>AF2:AF34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{024A08E9-B380-48E6-8BAA-C527110774A6}">
           <x14:formula1>
@@ -6223,6 +6716,24 @@
           </x14:formula1>
           <xm:sqref>K2:K34</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2FFB65F-7EF2-4414-9241-07DBA11E48B1}">
+          <x14:formula1>
+            <xm:f>Description!$S$2:$S$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>X2:X34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{25852B46-9B7F-421C-B4B4-B366036B0B63}">
+          <x14:formula1>
+            <xm:f>Description!$U$2:$U$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>Y2:Y34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC008ED6-6355-45F5-9DBD-CCBD74C5A461}">
+          <x14:formula1>
+            <xm:f>Description!$D$2:$D$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>I26:I28 I15:I17 I32:I34</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
